--- a/metadata/metadata.xlsx
+++ b/metadata/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoso\Desktop\UChicago Year 2\Fall\Git\digs\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA9512-7261-4B71-8DD2-07A6F0EE742E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F12387-1C6C-425F-802F-C6BBB17ED6DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{45685F68-CD11-4F28-9836-BDA2D46CEF15}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="234">
   <si>
     <t>Publication</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>National Geographic</t>
   </si>
   <si>
@@ -83,43 +80,6 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>THE GODS MUST be furious.
-It's the only explanation that makes sense to Jia Son, a Tibetan farmer surveying the catastrophe unfolding above his village in China's mountainous Yunnan Province. "We've upset the natural order," the devout, 52-year-old Buddhist says. "And now the gods are punishing us."
-On a warm summer afternoon, Jia Son has hiked a mile and a half up the gorge that Ming­yong Glacier has carved into sacred Mount Kawagebo, looming 22,113 feet high in the clouds above. There's no sign of ice, just a river roiling with silt-laden melt. For more than a century, ever since its tongue lapped at the edge of Mingyong village, the glacier has retreated like a dying serpent recoiling into its lair. Its pace has accelerated over the past decade, to more than a football field every year—a distinctly unglacial rate for an ancient ice mass.
-"This all used to be ice ten years ago," Jia Son says, as he scrambles across the scree and brush. He points out a yak trail etched into the slope some 200 feet above the valley bottom. "The glacier sometimes used to cover that trail, so we had to lead our animals over the ice to get to the upper meadows."
-Around a bend in the river, the glacier's snout finally comes into view: It's a deathly shade of black, permeated with pulverized rock and dirt. The water from this ice, once so pure it served in rituals as a symbol of Buddha himself, is now too loaded with sediment for the villagers to drink. For nearly a mile the glacier's once smooth surface is ragged and cratered like the skin of a leper. There are glimpses of blue-green ice within the fissures, but the cracks themselves signal trouble. "The beast is sick and wasting away," Jia Son says. "If our sacred glacier cannot survive, how can we?" It is a question that echoes around the globe, but nowhere more urgently than across the vast swath of Asia that draws its water from the "roof of the world." This geologic colossus—the highest and largest plateau on the planet, ringed by its tallest mountains—covers an area greater than western Europe, at an average altitude of more than two miles. With nearly 37,000 glaciers on the Chinese side alone, the Tibetan Plateau and its surrounding arc of mountains contain the largest volume of ice outside the polar regions. This ice gives birth to Asia's largest and most legendary rivers, from the Yangtze and the Yellow to the Mekong and the Ganges—rivers that over the course of history have nurtured civilizations, inspired religions, and sustained ecosystems. Today they are lifelines for some of Asia's most densely settled areas, from the arid plains of Pakistan to the thirsty metropolises of northern China 3,000 miles away. All told, some two billion people in more than a dozen countries—nearly a third of the world's population—depend on rivers fed by the snow and ice of the plateau region.
-But a crisis is brewing on the roof of the world, and it rests on a curious paradox: For all its seeming might and immutability, this geologic expanse is more vulnerable to climate change than almost anywhere else on Earth. The Tibetan Plateau as a whole is heating up twice as fast as the global average of 1.3°F over the past century—and in some places even faster. These warming rates, unprecedented for at least two millennia, are merciless on the glaciers, whose rare confluence of high altitudes and low latitudes make them especially sensitive to shifts in climate.
-For thousands of years the glaciers have formed what Lonnie Thompson, a glaciologist at Ohio State University, calls "Asia's freshwater bank account"—an immense storehouse whose buildup of new ice and snow (deposits) has historically offset its annual runoff (withdrawals). Glacial melt plays its most vital role before and after the rainy season, when it supplies a greater portion of the flow in every river from the Yangtze (which irrigates more than half of China's rice) to the Ganges and the Indus (key to the agricultural heartlands of India and Pakistan).
-But over the past half century, the balance has been lost, perhaps irrevocably. Of the 680 glaciers Chinese scientists monitor closely on the Tibetan Plateau, 95 percent are shedding more ice than they're adding, with the heaviest losses on its southern and eastern edges. "These glaciers are not simply retreating," Thompson says. "They're losing mass from the surface down." The ice cover in this portion of the plateau has shrunk more than 6 percent since the 1970s—and the damage is still greater in Tajikistan and northern India, with 35 percent and 20 percent declines respectively over the past five decades.
-The rate of melting is not uniform, and a number of glaciers in the Karakoram Range on the western edge of the plateau are actually advancing. This anomaly may result from increases in snowfall in the higher latitude—and therefore colder—Karakorams, where snow and ice are less vulnerable to small temperature increases. The gaps in scientific knowledge are still great, and in the Tibetan Plateau they are deepened by the region's remoteness and political sensitivity—as well as by the inherent complexities of climate science.
-Though scientists argue about the rate and cause of glacial retreat, most don't deny that it's happening. And they believe the worst may be yet to come. The more dark areas that are exposed by melting, the more sunlight is absorbed than reflected, causing temperatures to rise faster. (Some climatologists believe this warming feedback loop could intensify the Asian monsoon, triggering more violent storms and flooding in places such as Bangladesh and Myanmar.) If current trends hold, Chinese scientists believe that 40 percent of the plateau's glaciers could disappear by 2050. "Full-scale glacier shrinkage is inevitable," says Yao Tandong, a glaciologist at China's Institute of Tibetan Plateau Research. "And it will lead to ecological catastrophe."
-The potential impacts extend far beyond the glaciers. On the Tibetan Plateau, especially its dry northern flank, people are already affected by a warmer climate. The grasslands and wetlands are deteriorating, and the permafrost that feeds them with spring and summer melt is retreating to higher elevations. Thousands of lakes have dried up. Desert now covers about one-sixth of the plateau, and in places sand dunes lap across the highlands like waves in a yellow sea. The herders who once thrived here are running out of options.
-Along the plateau's southern edge, by contrast, many communities are coping with too much water. In alpine villages like Mingyong, the glacial melt has swelled rivers, with welcome side effects: expanded croplands and longer growing seasons. But such benefits often hide deeper costs. In Mingyong, surging meltwater has carried away topsoil; elsewhere, excess runoff has been blamed for more frequent flooding and landslides. In the mountains from Pakistan to Bhutan, thousands of glacial lakes have formed, many potentially unstable. Among the more dangerous is Imja Tsho, at 16,400 feet on the trail to Nepal's Island Peak. Fifty years ago the lake didn't exist; today, swollen by melt, it is a mile long and 300 feet deep. If it ever burst through its loose wall of moraine, it would drown the Sherpa villages in the valley below.
-This situation—too much water, too little water—captures, in miniature, the trajectory of the overall crisis. Even if melting glaciers provide an abundance of water in the short run, they portend a frightening endgame: the eventual depletion of Asia's greatest rivers. Nobody can predict exactly when the glacier retreat will translate into a sharp drop in runoff. Whether it happens in 10, 30, or 50 years depends on local conditions, but the collateral damage across the region could be devastating. Along with acute water and electricity shortages, experts predict a plunge in food production, widespread migration in the face of ecological changes, even conflicts between Asian powers.
-The nomads' tent is a pinprick of white against a canvas of green and brown. There is no other sign of human existence on the 14,000-foot-high prairie that seems to extend to the end of the world. As a vehicle rattles toward the tent, two young men emerge, their long black hair horizontal in the wind. Ba O and his brother Tsering are part of an unbroken line of Tibetan nomads who for at least a thousand years have led their herds to summer grazing grounds near the headwaters of the Yangtze and Yellow Rivers.
-Inside the tent, Ba O's wife tosses patties of dried yak dung onto the fire while her four-year-old son plays with a spool of sheep's wool. The family matriarch, Lu Ji, churns yak milk into cheese, rocking back and forth in a hypnotic rhythm. Behind her are two weathered Tibetan chests topped with a small Buddhist shrine: a red prayer wheel, a couple of smudged Tibetan texts, and several yak butter candles whose flames are never allowed to go out. "This is the way we've always done things," Ba O says. "And we don't want that to change."
-But it may be too late. The grasslands are dying out, as decades of warming temperatures—exacerbated by overgrazing—turn prairie into desert. Watering holes are drying up, and now, instead of traveling a short distance to find summer grazing for their herds, Ba O and his family must trek more than 30 miles across the high plateau. Even there the grass is meager. "It used to grow so high you could lose a sheep in it," Ba O says. "Now it doesn't reach above their hooves." The family's herd has dwindled from 500 animals to 120. The next step seems inevitable: selling their remaining livestock and moving into a government resettlement camp.
-Across Asia the response to climate-induced threats has mostly been slow and piecemeal, as if governments would prefer to leave it up to the industrialized countries that pumped the greenhouse gases into the atmosphere in the first place. There are exceptions. In Ladakh, a bone-dry region in northern India and Pakistan that relies entirely on melting ice and snow, a retired civil engineer named Chewang Norphel has built "artificial glaciers"—simple stone embankments that trap and freeze glacial melt in the fall for use in the early spring growing season. Nepal is developing a remote monitoring system to gauge when glacial lakes are in danger of bursting, as well as the technology to drain them. Even in places facing destructive monsoonal flooding, such as Bangladesh, "floating schools" in the delta enable kids to continue their education—on boats.
-But nothing compares to the campaign in China, which has less water than Canada but 40 times more people. In the vast desert in the Xin­jiang region, just north of the Tibetan Plateau, China aims to build 59 reservoirs to capture and save glacial runoff. Across Tibet, artillery batteries have been installed to launch rain-inducing silver iodide into the clouds. In Qinghai the government is blocking off degraded grasslands in hopes they can be nurtured back to health. In areas where grasslands have already turned to scrub desert, bales of wire fencing are rolled out over the last remnants of plant life to prevent them from blowing away.
-Along the road near the town of Madoi are two rows of newly built houses. This is a resettlement village for Tibetan nomads, part of a massive and controversial program to relieve pressure on the grasslands near the sources of China's three major rivers—the Yangtze, Yellow, and Mekong—where nearly half of Qinghai Province's 530,000 nomads have traditionally lived. Tens of thousands of nomads here have had to give up their way of life, and many more—including, perhaps, Ba O—may follow.
-The subsidized housing is solid, and residents receive a small annual stipend. Even so, Jixi Lamu, a 33-year-old woman in a traditional embroidered dress, says her family is stuck in limbo, dependent on government handouts. "We've spent the $400 we had left from selling off our animals," she says. "There was no future with our herds, but there's no future here either." Her husband is away looking for menial work. Inside the one-room house, her mother sits on the bed, fingering her prayer beads. A Buddhist shrine stands on the other side of the room, but the candles have burned out.
-It is not yet noon in Delhi, just 180 miles south of the Himalayan glaciers. But in the narrow corridors of Nehru Camp, a slum in this city of 16 million, the blast furnace of the north Indian summer has already sent temperatures soaring past 105 degrees Fahrenheit. Chaya, the 25-year-old wife of a fortune-teller, has spent seven hours joining the mad scramble for water that, even today, defines life in this heaving metropolis—and offers a taste of what the depletion of Tibet's water and ice portends.
-Chaya's day began long before sunrise, when she and her five children fanned out in the darkness, armed with plastic jugs of every size. After daybreak, the rumor of a tap with running water sent her stumbling in a panic through the slum's narrow corridors. Now, with her containers still empty and the sun blazing overhead, she has returned home for a moment's rest. Asked if she's eaten anything today, she laughs: "We haven't even had any tea yet."
-Suddenly cries erupt—a water truck has been spotted. Chaya leaps up and joins the human torrent in the street. A dozen boys swarm onto a blue tanker, jamming hoses in and siphoning the water out. Below, shouting women jostle for position with their containers. In six minutes the tanker is empty. Chaya arrived too late and must move on to chase the next rumor of water.
-Delhi's water demand already exceeds supply by more than 300 million gallons a day, a shortfall worsened by inequitable distribution and a leaky infrastructure that loses an estimated 40 percent of the water. More than two-thirds of the city's water is pulled from the Yamuna and the Ganges, rivers fed by Himalayan ice. If that ice disappears, the future will almost certainly be worse. "We are facing an unsustainable situation," says Diwan Singh, a Delhi environmental activist. "Soon—not in thirty years but in five to ten—there will be an exodus because of the lack of water."
-The tension already seethes. In the clogged alleyway around one of Nehru Camp's last functioning taps, which run for one hour a day, a man punches a woman who cut in line, leaving a purple welt on her face. "We wake up every morning fighting over water," says Kamal Bhate, a local astrologer watching the melee. This one dissolves into shouting and finger-pointing, but the brawls can be deadly. In a nearby slum a teenage boy was recently beaten to death for cutting in line.
-As the rivers dwindle, the conflicts could spread. India, China, and Pakistan all face pressure to boost food production to keep up with their huge and growing populations. But climate change and diminishing water supplies could reduce cereal yields in South Asia by 5 percent within three decades. "We're going to see rising tensions over shared water resources, including political disputes between farmers, between farmers and cities, and between human and ecological demands for water," says Peter Gleick, a water expert and president of the Pacific Institute in Oakland, California. "And I believe more of these tensions will lead to violence."
-The real challenge will be to prevent water conflicts from spilling across borders. There is already a growing sense of alarm in Central Asia over the prospect that poor but glacier-heavy nations (Tajikistan, Kyrgyzstan) may one day restrict the flow of water to their parched but oil-rich neighbors (Uzbekistan, Kazakhstan, Turkmenistan). In the future, peace between Pakistan and India may hinge as much on water as on nuclear weapons, for the two countries must share the glacier-dependent Indus.
-The biggest question mark hangs over China, which controls the sources of the region's major rivers. Its damming of the Mekong has sparked anger downstream in Indochina. If Beijing follows through on tentative plans to divert the Brahmaputra, it could provoke its rival, India, in the very region where the two countries fought a war in 1962.
-For the people in Nehru Camp, geopolitical concerns are lost in the frenzied pursuit of water. In the afternoon, a tap outside the slum is suddenly turned on, and Chaya, smiling triumphantly, hauls back a full, ten-gallon jug on top of her head. The water is dirty and bitter, and there are no means to boil it. But now, at last, she can give her children their first meal of the day: a piece of bread and a few spoonfuls of lentil stew. "They should be studying, but we keep shooing them away to find water," Chaya says. "We have no choice, because who knows if we'll find enough water tomorrow."
-Fatalism may be a natural response to forces that seem beyond our control. But Jia Son, the Tibetan farmer watching Mingyong Glacier shrink, believes that every action counts—good or bad, large or small. Pausing on the mountain trail, he makes a guilty confession. The melting ice, he says, may be his fault.
-When Jia Son first noticed the rising temperatures—an unfamiliar trickle of sweat down his back about a decade ago—he figured it was a gift from the gods. Winter soon lost some of its brutal sting. The glacier began releasing its water earlier in the summer, and for the first time in memory villagers had the luxury of two harvests a year.
-Then came the Chinese tourists, a flood of city dwellers willing to pay locals to take them up to see the glacier. The Han tourists don't always respect Buddhist traditions; in their gleeful hollers to provoke an icefall, they seem unaware of the calamity that has befallen the glacier. Still, they have turned a poor village into one of the region's wealthiest. "Life is much easier now," says Jia Son, whose simple farmhouse, like all in the village, has a television and government-subsidized satellite dish. "But maybe our greed has made Kawagebo angry."
-He is referring to the temperamental deity above his village. One of the holiest mountains in Tibetan Buddhism, Kawagebo has never been conquered, and locals believe its summit—and its glacier—should remain untouched. When a Sino-Japanese expedition tried to scale the peak in 1991, an avalanche near the top of the glacier killed all 17 climbers. Jia Son remains convinced the deaths were not an accident but an act of divine retribution. Could Mingyong's retreat be another sign of Kawagebo's displeasure?
-Jia Son is taking no chances. Every year he embarks on a 15-day pilgrimage around Kawagebo to show his deepening Buddhist devotion. He no longer hunts animals or cuts down trees. As part of a government program, he has also given up a parcel of land to be reforested. His family still participates in the village's tourism cooperative, but Jia Son makes a point of telling visitors about the glacier's spiritual significance. "Nothing will get better," he says, "until we get rid of our materialistic thinking."
-It's a simple pledge, perhaps, one that hardly seems enough to save the glaciers of the Tibetan Plateau—and stave off the water crisis that seems sure to follow. But here, in the shadow of one of the world's fastest retreating glaciers, this lone farmer has begun, in his own small way, to restore the balance.</t>
-  </si>
-  <si>
     <t>The Burden of Thirst</t>
   </si>
   <si>
@@ -132,39 +92,6 @@
     <t>If the millions of women who haul water long distances had a faucet by their door, whole societies could be transformed.</t>
   </si>
   <si>
-    <t>AYLITO BINAYO'S FEET know the mountain. Even at four in the morning she can run down the rocks to the river by starlight alone and climb the steep mountain back up to her village with 50 pounds of water on her back. She has made this journey three times a day for nearly all her 25 years. So has every other woman in her village of Foro, in the Konso district of southwestern Ethiopia. Binayo dropped out of school when she was eight years old, in part because she had to help her mother fetch water from the Toiro River. The water is dirty and unsafe to drink; every year that the ongoing drought continues, the once mighty river grows more exhausted. But it is the only water Foro has ever had.
-The task of fetching water defines life for Binayo. She must also help her husband grow cassava and beans in their fields, gather grass for their goats, dry grain and take it to the mill for grinding into flour, cook meals, keep the family compound clean, and take care of her three small sons. None of these jobs is as important or as consuming as the eight hours or so she spends each day fetching water.
-In wealthy parts of the world, people turn on a faucet and out pours abundant, clean water. Yet nearly 900 million people in the world have no access to clean water, and 2.5 billion people have no safe way to dispose of human waste—many defecate in open fields or near the same rivers they drink from. Dirty water and lack of a toilet and proper hygiene kill 3.3 million people around the world annually, most of them children under age five. Here in southern Ethiopia, and in northern Kenya, a lack of rain over the past few years has made even dirty water elusive.
-Where clean water is scarcest, fetching it is almost always women's work. In Konso a man hauls water only during the few weeks following the birth of a baby. Very young boys fetch water, but only up to the age of seven or eight. The rule is enforced fiercely—by men and women. "If the boys are older, people gossip that the woman is lazy," Binayo says. The reputation of a woman in Konso, she says, rests on hard work: "If I sit and stay at home and do nothing, nobody likes me. But if I run up and down to get water, they say I'm a clever woman and work hard."
-In much of the developing world, lack of water is at the center of a vicious circle of inequality. Some women in Foro come down to the river five times a day—with one or two of the trips devoted to getting water to make a beer-style home brew for their husbands. When I first came to Foro, some 60 men were sitting in the shade of a metal-roofed building, drinking and talking. It was midmorning. Women, says Binayo, "never get five seconds to sit down and rest." On a hot late afternoon I go with her to the river, carrying an empty jerry can. The trail is steep and in places slippery. We scramble down large rocks alongside cacti and thornbushes. After 50 minutes we reach the river—or what is a river at certain times of the year. Now it is a series of black, muddy pools, some barely puddles. The banks and rocks are littered with the excrement of donkeys and cows. There are about 40 people at the river, enough so that Binayo decides that the wait might be shorter upstream. The wait is especially long early in the morning, so Binayo usually makes her first trip before it is light, leaving her son Kumacho, a serious-faced little man who looks even younger than his four years, in charge of his younger brothers.
-We walk another ten minutes upstream, and Binayo claims a perch next to a good pool, one fed not only by a dirty puddle just above but also a cleaner stream to the side. Children are jumping on the banks, squishing mud through their feet and stirring up the water. "Please don't jump," Binayo admonishes them. "It makes the water dirtier." A donkey steps in to drink from the puddle feeding Binayo's pool. When the donkey leaves, the women at the puddle scoop out some water to clear it, sending the dirty water down to Binayo, who scolds them.
-After half an hour it is her turn. She takes her first jerry can and her yellow plastic scoop. Just as she puts her scoop in the water, she looks up to see another donkey plunk its hoof into the pool feeding hers. She grimaces. But she cannot wait any longer. She does not have the luxury of time.
-An hour after we arrive at the river, she has filled two jerry cans—one for her to carry back up, one for me to carry for her. She ties a leather strap around my can and puts it on my back. I am grateful for the smooth leather—Binayo herself uses a coarse rope. Still, the straps cut into my shoulders. The plastic can is full to the top, and the 50-pound load bounces off my spine as I walk. With difficulty, I make it halfway up. But where the trail turns steepest I can go no farther. Sheepishly, I trade cans with a girl who looks to be about eight, carrying a jerry can half the size of mine. She struggles with the heavier can, and about ten minutes from the top it is too much for her. Binayo takes the heavy jerry can from the girl and puts it on her own back, on top of the one she is carrying. She shoots us both a look of disgust and continues up the mountain, now with nearly 12 gallons of water—a hundred pounds—on her back.
-"When we are born, we know that we will have a hard life," Binayo says, sitting outside a hut in her compound, in front of the cassava she is drying on a goatskin, holding Kumacho, who wears no pants. "It is the culture of Konso from a long time before us." She has never questioned this life, never expected anything different. But soon, for the first time, things are going to change.
-When you spend hours hauling water long distances, you measure every drop. The average American uses a hundred gallons of water just at home every day; Aylito Binayo makes do with two and a half gallons. Persuading people to use their water for washing is far more difficult when that water is carried up a mountain. And yet sanitation and hygiene matter—proper hand washing alone can cut diarrheal diseases by some 45 percent. Binayo washes her hands with water "maybe once a day," she says. She washes clothes once a year. "We don't even have enough water for drinking—how can we wash our clothes?" she says. She washes her own body only occasionally. A 2007 survey found that not a single Konso household had water with soap or ash (a decent cleanser) near their latrines to wash their hands. Binayo's family recently dug a latrine but cannot afford to buy soap.
-Much of the cash they do have goes for four- to eight-dollar visits to the village health clinic to cure the boys of diarrhea caused by bacteria and parasites they regularly get from the lack of proper hygiene and sanitation and from drinking untreated river water. At the clinic, nurse Israel Estiphanos said that in normal times 70 percent of his patients suffer waterborne diseases—and now the area was in the midst of a particularly severe outbreak. Next to the clinic a white tent had arisen for these patients. By my next visit, Estiphanos was attending to his patients wearing high rubber boots.
-Sixteen miles away at the district health center in Konso's capital, almost half the 500 patients treated daily were sick with waterborne diseases. Yet the health center itself lacked clean water. On the walls of the staff rooms were posters listing the principles of infection control. But for four months a year, the water feeding their taps would run out, said Birhane Borale, the head nurse, so the government would truck in river water. "We use water then only to give to patients to drink or swallow medicine," he said. "We have HIV patients and hepatitis B patients. They are bleeding, and these diseases are easily transmittable—we need water to disinfect. But we can clean rooms only once a month."
-Even medical personnel weren't in the habit of washing hands between patients, as working taps existed at only a few points in the building—most of the examining rooms had taps, but they were not connected. Tsega Hagos, a nurse, said she had gotten spattered with blood taking out a patient's IV. But even though there was water that day, she had not washed her hands afterward. "I just put on a different glove," she said. "I wash my hands when I get home after work."
-Bringing clean water close to people's homes is key to reversing the cycle of misery. Communities where clean water becomes accessible and plentiful are transformed. All the hours previously spent hauling water can be used to grow more food, raise more animals, or even start income-producing businesses. Families no longer drink microbe soup, so they spend less time sick or caring for loved ones stricken with waterborne diseases. Most important, freedom from water slavery means girls can go to school and choose a better life. The need to fetch water for the family, or to take care of younger siblings while their mother goes, is the main reason very few women in Konso have attended school. Binayo is one of only a handful of women I met who even know how old they are.
-Access to water is not solely a rural problem. All over the developing world, many urban slum dwellers spend much of the day waiting in line at a pump. But the challenges of bringing water to remote villages like those in Konso are overwhelming. Binayo's village of Foro sits atop a mountain. Many villages in the tropics were built high in the hills, where it is cooler and less malarious and easier to see when the enemy is coming. But Konso's mountaintop villages do not have easy access to water. Drought and deforestation keep pushing the water table lower—in some parts of Konso it is more than 400 feet belowground. The best that can be done in some villages is to put in a well near the river. The water is no closer, but at least it is reliable, easier to extract, and more likely to be clean.
-Yet in many poor nations, vast numbers of villages where wells are feasible do not have them. Boring deep holes requires geological know-how and expensive heavy machinery. Water in many countries, as in Ethiopia, is the responsibility of each district, and these local governments have little expertise or money. "People who live in slums and rural areas with no access to drinking water are the same people who don't have access to politicians," says Paul Faeth, president of Global Water Challenge, a consortium of 24 nongovernmental groups that's based in Washington, D.C. So the effort to make clean water accessible falls largely to charity groups, with mixed success.
-The villages of Konso are littered with the ghosts of water projects past. In Konsos around the developing world, the biggest problem with water schemes is that about half of them fall into disrepair soon after the groups that built them move on. Sometimes technology is used that can't be repaired locally, or spare parts are available only in the capital. But other reasons are achingly trivial: The villagers can't raise money for a three-dollar part or don't trust anyone to make the purchase with their pooled funds. The 2007 survey of Konso found that only nine projects out of 35 built were functioning.
-Today a U.K.-based international nonprofit organization called WaterAid, one of the world's largest water-and-sanitation charities, is tackling the job of bringing water to the most forgotten villages of Konso. At the time of my visit, Water­Aid had repaired five projects and set up committees in those villages to manage them, and it was working to revive three others. At the health center in Konso's capital, it was installing gutters on the sloped roofs of the buildings to conduct rainwater to a covered tank. The water is now being treated and used in the health center.
-WaterAid is also working in villages like Foro, where no one has successfully brought water before. Their approach combines technologies proven to last—such as building a sand dam to capture and filter rainwater that would otherwise drain away—with new ideas like installing toilets that also generate methane gas for a new communal kitchen. But the real innovation is that WaterAid treats technology as only part of the solution. Just as important is involving the local community in designing, building, and maintaining new water projects. Before beginning any project, WaterAid asks the community to form a WASH (water, sanitation, hygiene) committee of seven people—four of whom must be women. The committee works with WaterAid to plan projects and involve the village in construction. Then it maintains and runs the project.
-The people of Konso, who grow their crops on terraces they have painstakingly dug into the sides of mountains, are famous for hard work, and they are an asset—one of Konso's few—in the quest for water. In the village of Orbesho, residents even built a road themselves so that drilling machinery could come in. Last summer their pump, installed by the river, was being motorized to push its water to a newly built reservoir on top of a nearby mountain. From there, gravity would pipe it down to villages on the other side of the mountain. Residents of those villages had contributed a few cents apiece to help fund the project, made concrete, and collected stones for the structures, and now they were digging trenches to lay pipes.
-From a distance they looked like a riotously colored snake: 200 people, mostly women in rainbow-striped peplum skirts and red or green T-shirts, forming a wavy line up the side of the mountain from the pump to the reservoir. Some men were helping lay fat pipes in the trench. The scene was almost festive with the taste of progress. Hundreds of people had come every day for four days to spend their mornings digging. The trench was about half finished, and each day the snake moved farther up the mountain.
-If installing a water pump is technically challenging, encouraging hygiene is a challenge of a different kind. Wako Lemeta is one of two hygiene promoters whom WaterAid has trained in Foro. Lemeta, rather shy and poker-faced, stops by Binayo's house and asks her husband, Guyo Jalto, if he can check their jerry cans. Jalto leads him to the hut where they are stored, and Lemeta uncovers one and sniffs. He nods approvingly; the family is using WaterGuard, a capful of which purifies a jerry can of drinking water. The government began to hand out WaterGuard at the beginning of the recent outbreak of disease. Lemeta also checks if the family has a latrine and talks to villagers about the advantages of boiling drinking water, hand washing, and bathing twice a week.
-Many people have embraced the new practices. Surveys say latrine use has risen from 6 to 25 percent in the area since WaterAid began work in December 2007. But it is a struggle. "When I tell them to use soap," Lemeta explains, "they usually tell me, 'Give me the money to buy it.' "
-Similar barriers must be overcome to keep a program going after the aid group leaves. WaterAid and other successful groups, such as Water.org, CARE, and A Glimmer of Hope, believe that charging user fees—usually a penny per jerry can or less—is key to sustaining a project. The village WASH committee holds the proceeds to pay for spare parts and repairs. But villagers think of water as a gift from God. Should we next pay to breathe air?
-Water and money have long been an uneasy mixture. Notoriously, in 1999 Bolivia granted a multinational consortium 40-year rights to provide water and sanitation services to the city of Cochabamba. The ensuing protests over high prices eventually drove out the company and brought global attention to the problems of water privatization. Multinational companies brought in to run public water systems for profit have little incentive to hook up faraway rural households or price water so it is affordable to the poor.
-Yet someone has to pay for water. Although water springs from the earth, pipes and pumps, alas, do not. This is why even public utilities charge users for water. And water is often most expensive to provide for those who can least afford it—people in the remote, sparsely populated, drought-stricken villages of the world.
-"The key question is, Who decides?" says Global Water Challenge's Faeth. "In Cochabamba nobody was talking to the very poorest. The process was not open to the public." A pump in a rural village, he says, is a different story. "At the local level there is a more direct connection between the people implementing the program and the people getting access to water."
-The Konso villagers, for instance, own and control their pumps. Elected committees set fees, which cover maintenance. No one seeks to recoup the installation costs or to make a profit. Villagers told me that, after a few weeks, they realized paying a penny per jerry can is actually cheap, far less than what they were paying through the hours spent hauling water—and the time, money, and lives lost to disease.
-How would Aylito Binayo's life be different if she never had to go to the river for water again? Deep in a gorge far from Foro, there is a well. It is 400 feet deep. During my visit it was nothing much to look at—aboveground it was only a concrete box with a jerry can inverted over it for protection, surrounded by a pyramid of bramble bushes. But here's what was to happen by March: A motorized pump would push the water up the mountain to a reservoir. Then gravity would carry it back down to taps in local villages—including Foro. The village would have two community taps and a shower house for bathing. If all went well, Aylito Binayo would have a faucet with safe water just a three-minute stroll from her front door.
-When I ask her to imagine this easier life, she closes her eyes and reels off a long list of chores. She will go the fields to help her husband, collect grass for the goats, make food for her family, clean the compound. She will be with her sons, instead of leaving a grave little four-year-old in charge of his younger brothers for hours on end. "I don't know whether to believe it will work. We are on top of a mountain, and the water is down below," she says. "But if it works, I will be so happy, so very happy."
-I ask her about her hopes for her family, and her answer is heartbreaking in its modesty: to get through the new hunger brought on by the drought, to get through this new wave of disease—to scramble back to the meager life she had known before. She doesn't dream. She has never dared think that someday life could change for the better—that there could arrive a metal spigot, out of the end of which gushed dignity.</t>
-  </si>
-  <si>
     <t>Silent Streams</t>
   </si>
   <si>
@@ -174,34 +101,6 @@
     <t>https://www.nationalgeographic.com/magazine/2010/04/freshwater-species/</t>
   </si>
   <si>
-    <t>THIS IS A strange sort of ark: a brick warehouse in Knoxville, Tennessee. Not only will the thing never float, but the life-changing flood is all inside, where water pours day and night from a maze of pipes into 600 glass aquariums and plastic tubs stacked to the ceiling. The passengers, most just a few inches long, are fish: madtoms and darters, topminnows and chub. For them the carefully filtered, aerated water offers the breath of life, whereas their natural homes—streams and rivers in the southeastern United States—are choked by dams and clouded with pollutants. The fish aboard the ark are among the last of their kind.
-At the helm, sharing the role of Noah, are J. R. Shute of North Carolina and Pat Rakes of Arkansas, who met at graduate school in the mid-1980s. They've been splashing around streams and keeping aquariums since they were boys. Now they've managed to transform a boyhood passion into an unusual profession. Freshwater animals are under siege all over the planet, and the species-rich Southeast is no exception. At their Knoxville nonprofit, Conservation Fisheries, Inc. (CFI), Shute and Rakes are trying to keep some of the rarest species alive.
-This is not like raising goldfish or guppies. Among the ark's passengers is the diamond darter, an imperiled sandbar dweller; it has proved so sensitive to disturbance that the biologists observe it in its aquarium only through a remote video monitor. Another darter, the Conasauga logperch, swims in a tank nearby. Its only known habitat is the Conasauga River in Georgia and Tennessee, whose waters have long been polluted and silted up by farms and factories. The Conasauga might still hold 200 of these fish, or it might not, but the three recent arrivals here are the only ones in captivity. Everyone at CFI is hoping they don't turn out to be the same sex so they can pair off. No effort will be spared to give them the arrangement of sand, gravel, or little rock shelters that might inspire intimate relations.
-Capturing the fish in the first place is just as challenging. In dive masks and bulky dry suits, talking through snorkels and wearing fish-scooping nets like hats because they need both hands free to pull themselves along the bottom, Shute and Rakes are a distinctive presence in a river. They often snorkel with flashlights at night, when some fish are more active. Once, as they splashed past a dark campground, they heard somebody holler, "Dang! Looks like a bunch of big bullfrogs with headlights."
-The goal is to have seed stock ready to restore the fish to a river, if and when society restores that river to its clean, free-flowing state. It hasn't happened yet to the Conasauga, but it is happening in other streams. These days Shute and Rakes find themselves not just capturing fish to bring aboard the ark but tracking the progress of fish they have already returned to the wild. "It's a big, natural experiment, and we're learning as we go," Rakes said. "I feel very lucky to be doing something I care about so much." The goal is to have seed stock ready to restore the fish to a river, if and when society restores that river to its clean, free-flowing state. It hasn't happened yet to the Conasauga, but it is happening in other streams. These days Shute and Rakes find themselves not just capturing fish to bring aboard the ark but tracking the progress of fish they have already returned to the wild. "It's a big, natural experiment, and we're learning as we go," Rakes said. "I feel very lucky to be doing something I care about so much."
-TODAY’S
-POPULAR STORIES
-SCIENCE &amp; INNOVATION
-Europe's most active volcano is sliding into the sea
-ANIMALSDOMESTICATED
-Why Siberian huskies have those brilliant baby blues
-ENVIRONMENT
-Climate change impacts worse than expected, global report warns
-Lakes, swamps, and rivers make up less than 0.3 percent of fresh water and less than .01 percent of all the water on Earth. Yet these waters are home to as many as 126,000 of the world's animal species, including snails, mussels, crocodiles, turtles, amphibians, and fish. Almost half the 30,000 known species of fish live in lakes and rivers, and many aren't doing well; in North America, for instance, 39 percent of freshwater fish are imperiled, up from 20 percent only a few decades ago. Freshwater animals in general are disappearing at a rate four to six times as fast as animals on land or at sea. In the United States nearly half the 573 animals on the threatened and endangered list are freshwater species.
-That's because freshwater ecosystems are so closely linked to human activity. Industry and agriculture are concentrated alongside flowing waters, and sooner or later the residue of virtually everything we do winds up running down the nearest creek—if we haven't dried up the creek first. In the southwestern U.S., as in other arid parts of the world, wildlife must compete for water with a burgeoning human population. Neither the Rio Grande nor the mighty Colorado is more than a trickle at its mouth today.
-But it is the American Southeast that stands out as a world center of freshwater-species diversity, especially the southern Appalachian Mountains. Carved up into countless hills and hollows that are aglimmer with springs, riffles, rapids, smooth glides, and pools, the highly eroded mountains provided the isolated niches in which freshwater creatures could evolve into a multitude of forms. They also escaped the Ice Age glaciers that bulldozed much of the continent farther north. The result: The Southeast holds the grandest array of freshwater mussels on Earth; North America's premier collection of freshwater snails, crayfish, and turtles; and nearly 700 of the approximately 1,000 species and subspecies of U.S. freshwater fish.
-Like most freshwater fish, those of the Southeast tend to be small and subdued in coloring—for most of the year. If you dunk your head in during spring or summer, though, when the males assume breeding hues, you might think you were near a coral reef. Christmas darters look like swimming red-garlanded trees; holiday darters and lipstick darters are striped and flecked in turquoise and orange. Male lollypop darters have knobs along the top of their dorsal fin that swell large and bright yellow—presumably to mimic eggs and inspire females to lay some. Behaviors can be equally striking. Male madtoms—finger-length catfish with barbels extending like whiskers from around their mouths—take eggs into their mouths to clean them. Some male darters do that by fanning water over the eggs, which also supplies the eggs with oxygen. The Conasauga logperch, barely five inches long, uses its snout like a crowbar to flip pebbles in search of food.
-With so many streams drowned beneath reservoirs or smothered by sediments from human activities or laden with harmful chemicals, nearly a third of the Southeast's fish are at risk of vanishing, many within a matter of years. CFI isn't the only outfit working to preserve them. The Tennessee Aquarium in Chattanooga, other private facilities, and state and federal wildlife agencies have efforts under way as well. It's mostly thankless work. A group of independent scientists, the Southeastern Fishes Council, put together a list they call the desperate dozen—"the 12 fish most likely to become extinct soon," said Anna George, chief research scientist at the Tennessee Aquarium. "The public has never heard of most of them."
-One exception is the Alabama sturgeon, which is, or was, up to 30 inches long. Its population was decimated in the past century by commercial fishing and dams that sealed off its migratory spawning routes. This sturgeon may now be the most endangered fish in the U.S. Intensive searches have turned up exactly three since it was officially protected in 2000. The last one caught, in 2007, was given a tracking device and followed daily for two years on the chance it would lead to others. It never did, and there are no Alabama sturgeons in captivity.
-In general, though, the endangered southeastern fish are of no economic importance. In some places that's precisely why they were eliminated. Tennessee's Abrams Creek, which winds for just 25 miles, mostly through Great Smoky Mountains National Park, used to hold nearly 70 species of native fish. (In contrast, the Columbia and Colorado river systems, which drain most of the American West, support only 54 species between them.) But park officials decided in 1957 to poison the native fish and stock the stream with non-native trout for sportfishing. They didn't want all those little local "baitfish" competing with young trout for food. Before long, Abrams Creek had lost nearly half of its original fish species.
-Since then, however, attitudes among wildlife managers have changed. Now they want their world-class menagerie of little fish back.
-Abrams Creek was running clear and cool, shaded by tulip poplars, pawpaws, and pines, on the day I belly flopped in with Shute and Rakes last fall. Flotillas of crimson leaves sailed by downstream, and stripe-necked musk turtles swam over to survey us as we counted fish. From 1986 to 2002, Shute and Rakes toted bucketfuls of fish from the Knoxville ark to Abrams Creek; now they return each year to monitor the results. It's just one of more than 30 streams they are working in. Since the 1950s and '60s, attitudes—and laws—have changed outside the national parks as well. Southeastern rivers are as dammed up as ever, but after a long era of relentless logging, coal mining, and discharging from factory and sewage pipes, environmental laws have cleaned them enough that in some places, ark-raised fish can be released to test the waters.
-The success stories are starting to come in. The Powell River, a tributary of the Tennessee, was devastated in 1996 by spills of coal-mine sludge, which, among other things, drastically shrank the range of the threatened yellowfin madtom. But CFI has reintroduced the fish and helped to expand the range again. "Lately we've been finding them in 35 miles of the Powell," Rakes said. "They're doing great." And on the afternoon last fall when the CFI team and I floated down a stretch of the river in Virginia, we had plenty of other company: at least a dozen species, including chub, darters, minnows, and shiners, beaming after bits of food in the eddies that formed behind us.
-Yellowfin madtoms are doing well in Abrams Creek too, as are the smoky madtoms, an endangered species that CFI also reintroduced. The spotfin chub didn't take, but Citico darters are thriving after nine years of restocking; in one hour last fall the CFI team counted 47. Later, standing among burbling aquariums in the Knoxville warehouse, Shute talked about how he had seen much worse places than Abrams Creek and about why he remains optimistic nonetheless. He described the Pigeon River, which flows from North Carolina into Tennessee.
-"It was the worst of the worst around here," he said. "But the company dumping in toxic chemicals cleaned up its act. Communities improved their wastewater outflows, and we've started to reintroduce tangerine darters.
-"You keep the last fish in an ark because you never know when a river might come back," Shute went on. "If the Pigeon could, any river can. They'll have to drag me out kicking and screaming before I give up."</t>
-  </si>
-  <si>
     <t>Sacred Waters</t>
   </si>
   <si>
@@ -211,19 +110,6 @@
     <t>https://www.nationalgeographic.com/magazine/2010/04/sacred-waters/</t>
   </si>
   <si>
-    <t>If I were called in / To construct a religion / I should make use of water, wrote the English poet Philip Larkin in 1954—and most religions do.
-Waters, religious historian Mircea Eliade explained in the 1950s, are “spring and origin, the reservoir of all the possibilities of existence; they precede every form and support every creation.” So it has been since human history began and, by legend, before. The world, Genesis says, was brought to life by a God who created a “firmament in the midst of the waters.” Babylonians believed in a world made from a commingling of fresh and salt water. Pima Indians have said Mother Earth was impregnated by a drop of water. The cataclysmic flood that destroys a civilization is also an aqueous archetype and part of Hebrew, Greek, and Aztec cultures.
-TODAY’S
-POPULAR STORIES
-SCIENCE &amp; INNOVATION
-Europe's most active volcano is sliding into the sea
-ANIMALSDOMESTICATED
-Why Siberian huskies have those brilliant baby blues
-ENVIRONMENT
-Climate change impacts worse than expected, global report warns
-The body thirsts. So does the spirit. “I must live near a lake,” wrote Swiss psychiatrist Carl Jung, who waded into the depths of the psyche and equated water with the unconscious. “Without water, I thought, nobody could live at all.”</t>
-  </si>
-  <si>
     <t>Fresh Water</t>
   </si>
   <si>
@@ -233,21 +119,6 @@
     <t>https://www.nationalgeographic.com/magazine/2010/04/water-is-life/</t>
   </si>
   <si>
-    <t>WE KEEP AN eye out for wonders, my daughter and I, every morning as we walk down our farm lane to meet the school bus. And wherever we find them, they reflect the magic of water: a spider web drooping with dew like a rhinestone necklace. A rain-colored heron rising from the creek bank. One astonishing morning, we had a visitation of frogs. Dozens of them hurtled up from the grass ahead of our feet, launching themselves, white-bellied, in bouncing arcs, as if we'd been caught in a downpour of amphibians. It seemed to mark the dawning of some new aqueous age. On another day we met a snapping turtle in his primordial olive drab armor. Normally this is a pond-locked creature, but some murky ambition had moved him onto our gravel lane, using the rainy week as a passport from our farm to somewhere else.
-The little, nameless creek tumbling through our hollow holds us in thrall. Before we came to southern Appalachia, we lived for years in Arizona, where a permanent runnel of that size would merit a nature preserve. In the Grand Canyon State, every license plate reminded us that water changes the face of the land, splitting open rock desert like a peach, leaving mile-deep gashes of infinite hue. Cities there function like space stations, importing every ounce of fresh water from distant rivers or fossil aquifers. But such is the human inclination to take water as a birthright that public fountains still may bubble in Arizona's town squares and farmers there raise thirsty crops. Retirees from rainier climes irrigate green lawns that impersonate the grasslands they left behind. The truth encroaches on all the fantasies, though, when desert residents wait months between rains, watching cacti tighten their belts and roadrunners skirmish over precious beads from a dripping garden faucet. Water is life. It's the briny broth of our origins, the pounding circulatory system of the world, a precarious molecular edge on which we survive. It makes up two-thirds of our bodies, just like the map of the world; our vital fluids are saline, like the ocean. The apple doesn't fall far from the tree.
-Even while we take Mother Water for granted, humans understand in our bones that she is the boss. We stake our civilizations on the coasts and mighty rivers. Our deepest dread is the threat of having too little moisture—or too much. We've lately raised the Earth's average temperature by .74°C (1.3°F), a number that sounds inconsequential. But these words do not: flood, drought, hurricane, rising sea levels, bursting levees. Water is the visible face of climate and, therefore, climate change. Shifting rain patterns flood some regions and dry up others as nature demonstrates a grave physics lesson: Hot air holds more water molecules than cold.
-The results are in plain sight along pummeled coasts from Louisiana to the Philippines as super­warmed air above the ocean brews superstorms, the likes of which we have never known. In arid places the same physics amplify evaporation and drought, visible in the dust-dry farms of the Murray-Darling River Basin in Australia. On top of the Himalaya, glaciers whose meltwater sustains vast populations are dwindling. The snapping turtle I met on my lane may have been looking for higher ground. Last summer brought us a string of floods that left tomatoes blighted on the vine and our farmers needing disaster relief for the third consecutive year. The past decade has brought us more extreme storms than ever before, of the kind that dump many inches in a day, laying down crops and utility poles and great sodden oaks whose roots cannot find purchase in the saturated ground. The word "disaster" seems to mock us. After enough repetitions of shocking weather, we can't remain indefinitely shocked.
-How can the world shift beneath our feet? All we know is founded on its rhythms: Water will flow from the snowcapped mountains, rain and sun will arrive in their proper seasons. Humans first formed our tongues around language, surely, for the purpose of explaining these constants to our children. What should we tell them now? That "reliable" has been rained out, or died of thirst? When the Earth seems to raise its own voice to the pitch of a gale, have we the ears to listen? A world away from my damp hollow, the Bajo Piura Valley is a great bowl of the driest Holocene sands I've ever gotten in my shoes. Stretching from coastal, northwestern Peru into southern Ecuador, the 14,000-square-mile Piura Desert is home to many endemic forms of thorny life. Profiles of this eco-region describe it as dry to drier, and Bajo Piura on its southern edge is what anyone would call driest. Between January and March it might get close to an inch of rain, depending on the whims of El Nino, my driver explained as we bumped over the dry bed of the Ro Piura, "but in some years, nothing at all." For hours we passed through white-crusted fields ruined by years of irrigation and then into eye-burning valleys beyond the limits of endurance for anything but sparse stands of the deep-rooted Prosopis pallida,arguably nature's most arid-adapted tree. And remarkably, some scattered families of Homo sapiens.
-They are economic refugees, looking for land that costs nothing. In Bajo Piura they find it, although living there has other costs, and fragile drylands pay their own price too, as people exacerbate desertification by cutting anything living for firewood. What brought me there, as a journalist, was an innovative reforestation project. Peruvian conservationists, partnered with the NGO Heifer International, were guiding the population into herding goats, which eat the protein-rich pods of the native mesquite and disperse its seeds over the desert. In the shade of a stick shelter, a young mother set her dented pot on a dung-fed fire and showed how she curdles goat's milk into white cheese. But milking goats is hard to work into her schedule when she, and every other woman she knows, must walk about eight hours a day to collect water.
-Their husbands were digging a well nearby. They worked with hand trowels, a plywood form for lining the shaft with concrete, inch by inch, and a sturdy hand-built crank for lowering a man to the bottom and sending up buckets of sand. A dozen hopeful men in stained straw hats stood back to let me inspect their work, which so far had yielded only a mountain of exhumed sand, dry as dust. I looked down that black hole, then turned and climbed the sand mound to hide my unprofessional tears. I could not fathom this kind of perseverance and wondered how long these beleaguered people would last before they'd had enough of their water woes and moved somewhere else.
-Five years later they are still bringing up dry sand, scratching out their fate as a microcosm of life on this planet. There is nowhere else. Forty percent of the households in sub-Saharan Africa are more than a half hour from the nearest water, and that distance is growing. Australian farmers can't follow the rainfall patterns that have shifted south to fall on the sea. A salmon that runs into a dam when homing in on her natal stream cannot make other plans. Together we dig in, for all we're worth.
-Since childhood I've heard it's possible to look up from the bottom of a well and see stars, even in daylight. Aristotle wrote about this, and so did Charles Dickens. On many a dark night the vision of that round slip of sky with stars has comforted me. Here's the only problem: It's not true. Western civilization was in no great hurry to give up this folklore; astronomers believed it for centuries, but a few of them eventually thought to test it and had their illusions dashed by simple observation.
-Civilization has been similarly slow to give up on our myth of the Earth's infinite generosity. Declining to look for evidence to the contrary, we just knew it was there. We pumped aquifers and diverted rivers, trusting the twin lucky stars of unrestrained human expansion and endless supply. Now water tables plummet in countries harboring half the world's population. Rather grandly, we have overdrawn our accounts.
-In 1968 the ecologist Garrett Hardin wrote a paper called "The Tragedy of the Commons," required reading for biology students ever since. It addresses the problems that can be solved only by "a change in human values or ideas of morality" in situations where rational pursuit of individual self-interest leads to collective ruin. Cattle farmers who share a common pasture, for example, will increase their herds one by one until they destroy the pasture by overgrazing. Agreeing to self-imposed limits instead, unthinkable at first, will become the right thing to do. While our laws imply that morality is fixed, Hardin made the point that "the morality of an act is a function of the state of the system at the time it is performed." Surely it was no sin, once upon a time, to shoot and make pies of passenger pigeons.
-Water is the ultimate commons. Watercourses once seemed as boundless as those pigeons that darkened the sky overhead, and the notion of protecting water was as silly as bottling it. But rules change. Time and again, from New Mexico's antique irrigation codes to the UN Convention on International Watercourses, communities have studied water systems and redefined wise use. Now Ecuador has become the first nation on Earth to put the rights of nature in its constitution so that rivers and forests are not simply property but maintain their own right to flourish. Under these laws a citizen might file suit on behalf of an injured watershed, recognizing that its health is crucial to the common good. Other nations may follow Ecuador's lead. Just as legal systems once reeled to comprehend women or former slaves as fully entitled, law schools in the U.S. are now reforming their curricula with an eye to understanding and acknowledging nature's rights.
-On my desk, a glass of water has caught the afternoon light, and I'm still looking for wonders. Who owns this water? How can I call it mine when its fate is to run through rivers and living bodies, so many already and so many more to come? It is an ancient, dazzling relic, temporarily quarantined here in my glass, waiting to return to its kind, waiting to move a mountain. It is the gold standard of biological currency, and the good news is that we can conserve it in countless ways. Also, unlike petroleum, water will always be with us. Our trust in Earth's infinite generosity was half right, as every raindrop will run to the ocean, and the ocean will rise into the firmament. And half wrong, because we are not important to water. It's the other way around. Our task is to work out reasonable ways to survive inside its boundaries. We'd be wise to fix our sights on some new stars. The gentle nudge of evidence, the guidance of science, and a heart for protecting the commons: These are the tools of a new century. Taking a wide-eyed look at a watery planet is our way of knowing the stakes, the better to know our place.</t>
-  </si>
-  <si>
     <t>Dirigible Dreams</t>
   </si>
   <si>
@@ -260,13 +131,6 @@
     <t>https://www.theatlantic.com/magazine/archive/2010/04/dirigible-dreams/308003/</t>
   </si>
   <si>
-    <t>WHEN A 7.0 earthquake hit Haiti in January, the island’s tiny airport became a huge bottleneck for relief supplies. But someday, rescuers may have another option: an airship that could land off-airport with a load larger than a current cargo airplane’s, at significantly less cost. And that day might come sooner than you’d think.
-Four years ago, a strange, bloated contraption moved out of Lockheed Martin’s hangar in Palmdale, California, and skimmed its way to the runway. Looking more like an inflated bath toy than an aircraft, with four stubby landing feet extending from its bulbous, tri-lobe shape, it waddled and bounced its way off the runway and into the air.
-Lockheed’s P-791 prototype might not look like the next cool frontier in aviation. In fact, its wide, tri-lobe shape, which allows its body to generate lift, is the high-tech descendant of an idea that engineers, inventors, and crackpots have pursued since the Civil War. And by the end of 2011, something like it may be a fixture in the skies over Afghanistan, hunting down the improvised explosive devices that cause up to 70 percent of the combat casualties there.
-The idea of a tri-lobe airship dates back to 1863, when Solomon Andrews flew the Aereon, a triple-hulled, gravity-powered airship he hoped to develop for military and commercial use. The war’s end took away the driving need—and funding—for a controllable reconnaissance vehicle.
-Undaunted, Andrews built a single-hull airship that moved sideways. To explain how the craft flew, he published a booklet subtitled “Without Eccentricity, There Is No Progression.” Andrews may not have meant the double entendre, but his statement was prescient, for the evolution of airships has been marked by the efforts of many eccentrics.</t>
-  </si>
-  <si>
     <t>The amount of moisture on Earth has not changed. The water the dinosaurs drank millions of years ago is the same water that falls as rain today. But will there be enough for a more crowded world?</t>
   </si>
   <si>
@@ -288,26 +152,6 @@
     <t>No matter who wins the battle between the Kindle and the iPad, it marks the return of machines as market-makers.</t>
   </si>
   <si>
-    <t>CAN IT BE a coincidence that J. D. Salinger died the same day the iPad was introduced? After all, Salinger belonged utterly to the era of typewriters and overflowing ashtrays and dog-eared paperbacks yellow with age. Perhaps he could not live long in a world where the Next Big Thing in publishing was not an author, but an electronic reading machine. Forget the literary giants who once traded barbs at Elaine’s or the Algonquin. Now the battle over the world’s literary territory, a contest on the epic scale of Mothra vs. Godzilla, is between Amazon’s Kindle and Apple’s iPad.
-These devices have the potential to change how books are sold, in much the way that the MP3 player has reconfigured the music industry. Distribution networks will be transformed, power relationships will shift, and everyone will move to a new way of doing business.
-In some ways, this transformation is as big for the technology industry as it is for publishing. The iPad and the Kindle, like the iPod before them, represent something slightly remarkable: the return of the machine as market-maker. Amazon, one of the rare “New Economy” firms to survive the dot-com bust, is now trying to turn itself into an old-school hardware manufacturer. Even more remarkably, it may succeed.
-Unless you’re under 20, you’ve probably heard the Legend of Microsoft more than once. IBM thought of software as an accessory for its enormous, expensive computers. That’s why, in the early ’80s, the company let the upstart Bill Gates keep the rights to the MS-DOS operating system and sell it separately from the computers. As the mainframe business waned and PCs became a commodity, that turned out to be a colossal strategic error. Ever since, power in the technology sector has ebbed away from the machine, toward “platform agnostic” applications that made hardware less relevant. Microsoft’s battles for dominance in the operating-system market were followed by the browser wars against Netscape. Then even software became less strategically important, as market power shifted toward the gateways to the Internet: e-mail and search engines.
-Hardware is still a competitivearena—gaming consoles have been slugging it out for decades. And of course, there was Apple. After a foray into licensing its operating system, Apple took back control of the hardware, creating a more stable and consistent user experience at the cost of some flexibility. But while Macs had devoted fans, most computer users chose PCs for price and flexibility.
-Not until the iPod did Apple demonstrate that its business model—controlling the hardware and operating system—could still dominate a market. And the iPod also created potentially lucrative revenue streams by selling content.
-After all, Apple can sell only so many MP3 players or iPhones. But it can push a seemingly limitless number of songs and videos through the iTunes Store. Once you’ve invested in creating a digital-content outlet, the cost of selling an additional unit is low, and you have virtually unlimited economies of scale. Someday, Apple may well make more money by selling content and applications than by selling pretty machines. That’s presumably why Amazon launched its own service for video and music downloads. Its modest success put competitive pressure on Apple. But without a winning device that seamlessly integrates with its store, Amazon’s digital-media service could not achieve the ubiquity of iTunes.
-Books, however, are different. Until the iPad, no Apple device had offered anything comparable to the portability, readability, and battery life of a Kindle, or a book. With a big enough head start, Amazon had the chance to become the primary retailer of digital reading material. Moreover, if enough users acquired libraries of books in its proprietary format, Amazon could maintain that competitive advantage almost indefinitely, because of switching costs: users who adopted a different, technologically incompatible brand of e-book would lose their whole library.
-But now the iPad will make it hard for Amazon to achieve that kind of effortless lock-in—just as several years ago, Amazon’s MP3 downloads helped to defeat Apple’s quest for lock-in with its proprietary copy-protected music.
-By one estimate, Amazon has sold 1.5 million Kindles, and on Christmas Day 2009, e-book sales exceeded hard-copy sales for the first time in Amazon’s history. Those are pretty impressive figures for an expensive new device with uncertain market potential. But they pale next to iPod sales, which reached nearly 250 million by the end of 2009. If Amazon wants to win the e-book wars, it will need to radically step up its game.
-Indeed, it already has; shortly after the existence of the iPad was confirmed, Amazon announced an applications store for the Kindle, to rival Apple’s for the iPad, and promised publishers a bigger share of the pie. Amazon has also reportedly bought a touch-screen company that could allow new versions of the Kindle to match one of the iPad’s advantages: a color display that is critical to winning over the lucrative textbook market, and glossy magazines.
-But pioneers who create a market sometimes find themselves shut out of it. Despite having expertise and name recognition on their side, first movers often lack what economists call “complementary assets”—the additional capabilities that allow them to commercialize their innovation. Like, say, decades of expertise designing cool, seductive gadgets to feed users into your store.
-On the other hand, Amazon has some complementary assets of its own, notably relationships with publishers, and a vast database of customer information and product reviews that would take Apple years to duplicate. Unlike the iTunes Store, Amazon’s Kindle Store is not competing with free—although alternate formats abound, free digital versions of copyrighted works are not easily available. That may give Amazon enough time to get readers committed to its product.
-Of course, as we’ve already seen, publishers, and Apple, will try to prevent that. The day after the iPad made its debut, Macmillan Publishing demanded that Amazon charge higher prices for its e-books, a demand that culminated in Amazon’s yanking both e-book and print Macmillan products off its virtual shelves. Ultimately, Amazon acknowledged it would have to capitulate to Macmillan’s pricing scheme. Other publishers will probably follow Macmillan’s lead. Since Amazon often uses discounting to gain competitive advantage, while Apple is committed to a premium pricing model, giving publishers more pricing power will help the iPad and erode the Kindle’s head start. Apple may have launched its product just in time.
-But even without format lock-in, the Kindle has some formidable advantages. Aside from the small problem of reading in the bathtub, the Kindle is simply a better (and pricier) version of a book: lighter, thinner, and much easier to read with one hand. You use it the way you would use a book, on park benches and long airplane trips. The Kindle doesn’t do much of anything else, but it is an excellent book replacement.
-The iPad does a bunch of things, but none of them especially well. You can’t read it in full daylight, and its battery life is much shorter than the Kindle’s. With no true built-in keyboard or ability to multitask, it’s not a substitute for a laptop—and unlike my iPhone, it won’t fit in a pocket, take pictures, or make calls. Unless you need it for one of a handful of specialty uses, it doesn’t replace anything you already have; it’s just one more thing to carry. Apple’s gee-whiz design talents are compelling, but hardly infallible: consider the fate of the Newton handheld device, or Apple TV.
-But perhaps the Kindle’s biggest asset is that it can bundle e-books with … actual books. If an e-book is unavailable through iTunes, tough luck. If a book is not available in Kindle’s e-book format, well, with one click I can have it shipped in a couple of days. The convenience of one-stop shopping for a book you really want is apt to be a powerful incentive to stay in Amazon’s domain during the transition from printed books.
-The triumph of the Kindle over Apple’s sleeker, multifunction device would not, however, end the competition. In the tech world, once one player achieves dominance, the next step usually seems to be an antitrust suit. Apple is no stranger to the competitive advantages that can be conferred by regulatory interventions as strategic weapons: a cheerleader for the suits that tangled up Microsoft in the 1990s, it has been a target of suits complaining about iTunes. Thus far, these have been more nuisance than threat. But if either company manages to achieve the kind of market share that Microsoft enjoyed on the desktop, it can probably expect a visit from the Justice Department. No matter how great the literary giant, it seems, none can stay on top forever.</t>
-  </si>
-  <si>
     <t>Exodus</t>
   </si>
   <si>
@@ -323,16 +167,6 @@
     <t>Geography</t>
   </si>
   <si>
-    <t>AT THE SOUTHERN tip of the Suez Canal, at Port Tawfiq, the waterway opens up and freighters toting thousands of red, blue, and gray containers speed south toward the Red Sea, past crumbling apartment blocks on one shore and a long stretch of dunes on the other. The old men on the boardwalk used to see 40 or 50 ships float by daily. Now the numbers are ebbing—and with them, Egyptians’ hopes for a better future.
-“It’s closer to 17 to 20 a day,” says Ahmed, 76, who spent most of his life catching tuna from a tiny trawler in the Gulf of Suez. (He declined to give his last name because a mukhabarat, or intelligence agent, was smoking nearby, handgun tucked into his jeans.)
-According to the Suez Canal Authority, 17,228 ships passed through the 101-mile canal in 2009, compared with 21,415 in 2008, and 20,384 in 2007. The decline is mostly due to the global economic downturn and low oil prices. “The falling cost of fuel means it wasn’t as expensive to go around Africa,” says Simon Kitchen, a senior economist at the Egyptian investment bank EFG-Hermes, based in Cairo. “You’re paying for an extra 20 days’ fuel, but you’re not paying the canal fee.” (The average fee paid per ship comes close to $250,000.)
-And then there are the pirates. In 2009, the International Maritime Bureau reports, pirates staged at least 20 successful hijackings in the Gulf of Aden, through which all ships traveling to or from the canal must pass, plus nearly 100 failed attacks. Although the slowdown threatens Egypt’s economy—2 to 3 percent of gross domestic product comes from canal revenues—what’s more serious is the political impact. The $4.3 billion in canal fees the government received last year helped subsidize staples like bread; less revenue means less money to buy off the masses, and government officials fear a repeat of the bread riots that gripped northern Egypt in 2008.
-But the Suez Canal also symbolizes something more to Egyptians. “The canal has become so woven into modern Egyptian identity,” says Zachary Karabell, the author of Parting the Desert: The Creation of the Suez Canal. “It’s a real aspect of modern Egyptian nationhood.”
-Nearly 4,000 years ago, the pharaohs built a canal linking the Nile and the Red Sea. It operated intermittently until 767 A.D., when the Abbasid caliph al-Mansur closed it to cut off the supply of goods to insurgents in the Nile Delta and Medina. For more than 1,000 years, no corridor connected the Mediterranean and the Red Sea. Then, in 1869, the modern canal opened along a new route, designed by the French diplomat Ferdinand de Lesseps, that traced a straight line through the desert, slashing the time and energy needed for transport. Since then, the canal has been repeatedly linked in the popular memory with assertions of Egyptian independence or military might.
-Abdel-Moneim Morsi, the owner of the New Dolphin Restaurant, a seafood spot popular with the Suez elite, recalled secretly crossing the canal as a first sergeant in the Egyptian Army during the 1973 war with Israel. The army had installed pontoon bridges, and within hours the Egyptians had retaken a western swath of the Sinai Peninsula. “We were victorious,” Morsi says. “We felt great happiness. This was our land—the canal, the desert.” But the Israelis soon counterattacked, gained control of the canal, and forced an embarrassing cease-fire. Today, a tenuous peace persists between Egypt and Israel, but everywhere in Egypt, anger is growing at the Israelis, the Palestinians, the world. The relatively high growth rates the country saw from 2005 to 2008 did little for the vast majority of Egyptians, who are poorly educated and hobbled by skyrocketing inflation.
-The visible decline in canal traffic has exacerbated their fears. Glancing at a Maersk Line carrier chugging past, Mohammed Fattouh says his falafel and espresso business was down 40 percent this year. “Something,” he says, “is wrong with our country.”</t>
-  </si>
-  <si>
     <t>Outback Steakhouse</t>
   </si>
   <si>
@@ -342,18 +176,6 @@
     <t>Australia’s bush meat is tasty, healthy, and enviro-friendly. But can you get people to eat it?</t>
   </si>
   <si>
-    <t>Garry Dann nudged the steak in the rusty electric frying pan at his meat store in Alice Springs, a town in central Australia far from everything except desert. He pushed aside the bottle of canola oil next to the pan. “It’s a great cut. You don’t need to add anything, just cook it in its own fat,” he said.
-It tasted like a juicier version of beef. But the meat in question was camel—freshly slaughtered at Dann’s abattoir, Centralian Gold, which he has been running, off and on, since 1986. In that time, the population of Australian camels has escalated to plague proportions, and Dann believes that selling their meat could become a multimillion-dollar industry.
-Camels were first brought to Australia from the Canary Islands in the 1840s as beasts of burden. They carried goods across the harsh, Martian-red desert. As roads were built, they were gradually released into the wild. Now Australian camels make up the largest wild herd in the world, numbering about a million. With no natural predators, they are expected to double in population every decade.
-Like most foreign species introduced into Australia’s delicate ecosystem, camels have wreaked havoc. They feed on roughly 80 percent of Australia’s plant species, and have pushed some to the brink of extinction. In their search for water, they soil Aboriginal drinking holes, destroy everything from fences to air conditioners, and cause more than $12 million worth of damage each year. In response, the Australian government plans to cull 349,000 of them, at a cost of $17 million. Dann thinks this is a waste of potentially valuable meat. He concedes that camel is still a novelty in Australia, but he sees a lucrative market in the Middle East, where it’s widely accepted. If he wins government approval to export, he aims to up the number of animals he slaughters each week from 20 to 300. “It’s a good meat, low in cholesterol,” he said. “I would hate to see it go to the worms.”
-Purveyors of Australia’s other bush meat—kangaroo—are also struggling to increase demand. In August 2009, Russian importers—who made up 70 percent of the export market, and used the meat mainly as filler in dumplings and sausages—started canceling their orders after finding strands of E. coli in several shipments.
-Now the industry is looking homeward. Since 1993, when Australia legalized kangaroo for human consumption, efforts to promote it have been sporadic. But experts from a wide range of fields have recently started extolling the beast’s benefits. In 2008, Australia’s chief adviser on climate change argued that kangaroos could offer a competitive advantage to the country’s livestock industry, as global warming wreaks havoc on cow and sheep populations. Environmental groups waxed lyrical about the marsupial’s low methane emissions, and dieticians advocated the gamey meat for its low fat content and high levels of zinc, iron, and linoleic acid.
-But for all the hype, the industry has never developed much of a local following. One 2008 report found that only 14.5 percent of Australians eat kangaroo more than four times a year. Domestically, it’s used mostly for pet food. “There needs to be more brand recognition,” said Barbara Wilson, the CEO of Safefood Queensland, a government agency. “It should really be put on a show like MasterChef, to encourage people to cook with it.”
-Wilson concedes that industry practices also need to change. Unlike camels, which are killed in abattoirs, kangaroos are mostly killed by small-scale hunters, who are harder to regulate and don’t necessarily follow sanitary standards.
-The camel-meat sector faces its own economic challenges. The market price of the meat is too low to support the cost of transporting it across the country, according to Gordon Grigg of Queensland University. And many camels roam in remote locations accessible only by air, which makes them costly to herd for slaughter.
-Nonetheless, Dann is confident about his product: “I’ll admit they aren’t the most attractive animals to look at, but they are just as good as any other meat.” And, he points out, they have a critical advantage over kangaroos: with camels, you’re not eating something on Australia’s coat of arms.</t>
-  </si>
-  <si>
     <t>Food</t>
   </si>
   <si>
@@ -375,16 +197,6 @@
     <t>Consumer technology</t>
   </si>
   <si>
-    <t>LATE LAST FALL, about 50 miles east of Birmingham, more than 100,000 people gathered in the immense grandstands of Talladega Superspeedway. In the infield idled 43 glittering race cars lined up single file—each with an engine that generates more than 450 horsepower, costs roughly $60,000, and, these days, is obsolete almost from the moment it’s made.
-Starting the Talladega race in sixth place, the No. 2 Miller Lite car, driven by Kurt Busch, was powered by an engine called D95R, built by Penske Racing. The D stands for Dodge, Penske’s engine sponsor. R refers to restrictor plate, an engine type used only at the largest tracks. The 95 indicates that this motor is the 95th, and last, in its series of engines. With a new generation already in limited use, D95R was about to become one more victim of NASCAR’s unrelenting arms race. Its short, brutal career—a mere 18 months, ending at Talladega—demonstrates how cutthroat, globalized, and technologically advanced this purportedly down-home sport has become.
-By rule, all NASCAR teams use the same basic engine block, a specialized version of the iconic V-8 on which the sport, and car culture itself, was founded. D95R’s block (the eight chambers where the gas and air are compressed and ignited) was forged at the elite Grainger &amp; Worrall engine works in Shropshire, England, then shipped to Penske’s shop in the Charlotte suburb of Concord. There, in a spotless room, the shop manager, Scott Corriher, led a team of nine engineers and about 45 production mechanics in the rigorous assembly-and-testing process. D95R’s cylinder heads were pressurized with air and submerged in water to check for leakage. The team installed piston heads, connecting rods, rocker arms, springs, manifolds, and the hundreds of other parts that make any engine move. Then the newly assembled motor spent its first three hours of life running on a dynamometer, a device for measuring power output. Many of its parts had been manufactured on site, while some came from as far away as Germany and Japan. All were produced with the help of computers and robots, and all had to meet astonishingly tight specifications: any part off by even a few thousandths of an inch was discarded.
-NASCAR engines weren’t always so complicated, or so expensive. In the 1940s, drivers in the National Association for Stock Car Auto Racing raced actual stock cars. Fans could watch a car win a race on Sunday and buy virtually the same model at a dealership on Monday. As the automobile’s popularity boomed in the 1950s and ’60s, engine innovation boomed with it. Soon, even shade-tree mechanics could build motors that blew away production models. NASCAR, meeting the public demand for more and more speed, started allowing teams more leeway in customizing motors. By the 1970s, racing engines were so heavily modified that only the bodies could legitimately be called stock.
-Today, although referred to as Toyotas, Chevys, or Fords for marketing’s sake, practically the only thing NASCAR engines share with their showroom counterparts is a nameplate. Every one of the 3,000 or so parts that go into a race car is custom-designed and -built, mostly in the ultra-high-tech race shops clustered around Charlotte. Increasingly, in a sport where the margin of victory can be thousandths of a second, these shops are where races are won and lost.
-Proved worthy, D95R was put in a Miller Lite Dodge chassis configured to create maximum downforce—the combination of air pressure and centrifugal force that would keep the car stuck to the pavement on the high-banked turns of Talladega’s track. Finally, the fully assembled car was loaded onto an 18-wheeler and hauled 350 miles to central Alabama.
-Early in the race, Busch surged ahead, taking the lead on Lap 2. He stayed near the front until Lap 41, when another car bumped him, denting a right-rear quarter panel and causing a tire rub that inevitably led to a blowout a few laps later. The car spun counterclockwise, slid down the track, and careened wildly across the infield grass, bringing out a caution flag that froze the field. Busch was able to keep the engine fired and rumble to his pit. His crew performed some quick bodywork, put on a fresh set of tires, and had the car on the track again just one lap down when the race restarted. It took 100 laps for Busch and D95R, but they fought to the front again, reaching ninth on the final lap before being hit from behind and triggering an ugly 13-car wreck. They finished 30th.
-Afterward, the Penske team hauled the mangled car back to North Carolina. D95R, badly damaged, needed a new oil pump and crankshaft. Even so, the engine would have been able to race again, save for the onward march of NASCAR’s technical progress. Long before Talladega, Penske had a new engine type in the works: the R6 series, 15 pounds lighter and with a more advanced cooling system. When NASCAR’s next season began in February with the Daytona 500, an R6 powered the No. 2 Miller Lite Dodge. And D95R, like any old athlete, was mercilessly cast aside.</t>
-  </si>
-  <si>
     <t>Ars Technica</t>
   </si>
   <si>
@@ -409,12 +221,6 @@
     <t>Study participants who were able to take naps long enough to dream were able  …</t>
   </si>
   <si>
-    <t>Naps are a popular afternoon hobby, and a new study is only going to make them more appealing. A paper published in Current Biology this week describes a study where participants who were able to take naps long enough for dreams to occur were able to perform a previously learned task more quickly than others who had had to stay awake. The dreams sometimes, but didn't always, concern the task at hand—in some cases, the dreams appeared to be an attempt to integrate the maze with older memories.
-In the study, 100 participants were asked to learn to navigate a three-dimensional maze on a computer in pursuit of a particular landmark (in this case, a tree). The participants were then split into two groups, with some taking 90-minute naps and the rest staying awake. The participants were retested a few hours later, and those who had taken naps were able to navigate the maze 30 seconds faster on average, with some completing it as much as a minute and a half faster.
-In verbal reports, people who napped reported dreams that involved the maze to various degrees. Some dreamed of the physical maze but added familiar landmarks, such as people or places; others didn't see the maze but dreamed of the music that played during the training; a few had tangentially related dreams, like one who navigated bat caves; some didn't remember any maze-related dreams at all.
-The paper's authors note that there was no correlation between dream relevance, and that just having enough time to dream significantly improved performance. However, the length of time needed to achieve a dreaming state may be prohibitively long: while 20-minute "power naps" have become a somewhat acceptable habit, you boss may be somewhat less inclined to let you curl up under your desk for an hour and a half in the afternoon.</t>
-  </si>
-  <si>
     <t>Google reportedly preparing to intro TV software next month</t>
   </si>
   <si>
@@ -424,15 +230,6 @@
     <t>https://arstechnica.com/gadgets/news/2010/04/google-reportedly-preparing-to-intro-tv-software-next-month.ars</t>
   </si>
   <si>
-    <t>Consumer Technology</t>
-  </si>
-  <si>
-    <t>The Google TV—or rather, Google's software for set-top boxes—is one step closer to reality, according to sources speaking to the Wall Street Journal. Google is reportedly preparing to announce the software at next month's Google I/O conference, where developers may be able to get their feet wet writing applications for the platform, though the sources cautioned that Google might back off on the announcement if it's not quite ready by then.
-Google's TV plans have yet to be officially confirmed, though they have been rumored for at least a month now. Consistent with the company's strategy in other areas, Google isn't expected to be involved in manufacturing set-top boxes; rather, the company is supposedly developing a version of Android that would be especially conducive to the big screen. Third-party developers would then be able to write their own apps for the devices, giving more openness and flexibility to people's TV watching habits.
-According to the WSJ, hardware makers like Sony, Intel, and Logitech are interested in rolling out devices that work with Google's software. On top of that, Google is reportedly in the process of testing a sort of "television search" with the Dish Network, which allows users to search for content on the Internet and from Dish's programming.
-We're still left a little unsure of how well the Google TV project will succeed, given the fact that there are already a handful of other set-top boxes available (and some of them for pretty cheap). However, if the UI is good and the developer community gets on board, there's potential for this device (or, more likely: devices) to fill a small gap in the market. After all, there are few set-top boxes right now that aren't full-blown HTPCs, but still give developers the freedom to develop their own apps, and their growing familiarity with Android—thanks to the mobile world—would certainly help.</t>
-  </si>
-  <si>
     <t>The Google I/O conference will bring many things, and one of them may involve  …</t>
   </si>
   <si>
@@ -448,34 +245,6 @@
     <t>Metascience</t>
   </si>
   <si>
-    <t>Pity Gregor Mendel. Far enough ahead of his peers that his work wasn't appreciated in his own lifetime. When the world was finally ready to deal with his results, the scientific community almost instantly went to work demonstrating that Mendel's Laws were wrong—or at least applied to such a narrow subset of inheritance that it was nearly impossible to generalize them. Yet, despite all these problems, most of the phenomena associated with inheritance, including the majority of exceptions to his eponymous Laws, continue to be termed Mendelian inheritance.
-Why does the scientific world celebrate Mendel's achievement despite the fact that his work languished and then was quickly left in the dust? If we look at the history of his ideas (as we're about to do here), one key factor seems to be the fact that other researchers quickly linked his laws to the underlying biology. But perhaps more significantly,we'll see that, even if his laws were wrong, they provided some testable predictions that helped organize an otherwise mystifying field. It's OK to be wrong in science, as long as you're wrong in ways that lead to fruitful research. In a recent trip through the history of science, Chris Lee pointed out that Einstein used recently developed math to deal with problems that had been annoying scientists for decades, if not centuries. The law that resulted, in the sense that "nothing moves faster than light" can be considered a law, was little more than a happy side effect of tying together things like electromagnetism, the nature of light, and the structure of the universe.
-Mendel's work was nothing like that. The people who thought about inheritance had found it pretty vexing, but not a lot of people thought about it, and the field was such a black box that there weren't even the equivalent of outstanding issues to neatly package together, as Einstein did. At the time that Mendel set to work, the only other scientific field that might immediately benefit from an understanding of inheritance—evolutionary biology—was still largely trapped in Darwin's brain, kept there by his general dislike of making waves. The claim that science is either physics or stamp collecting may be hyperbole, but, in a lot of ways, pre-Mendelian biology was a lot closer to stamp collecting than physics. The only thing that merited the status of theory—cell theory—was descriptive, not quantitative, and a lot of biology simply involved cataloging species. The Linnaean classification system provided this process with some structure, but the implication of this system—a branching tree of life—wasn't fully grasped or accepted, and no mechanism for producing one had withstood any scrutiny.
-Mendel wasn't a stamp collector. He spent two years developing true-breeding plant lines, and learned how to control the fertilization of seeds in the process. He developed a precise scoring system for a variety of traits, and then set about breeding and analyzing tens of thousands of offspring. 
-By grouping the offspring together based on their appearances—their phenotypes—Mendel was able to begin to recognize patterns in the appearance of traits. In some types of crosses, two traits would appear in roughly equal numbers; in others, the ratio would be closer to 3:1. Eventually, he realized that these patterns could be created through the inheritance of pairs of genetic factors, which we now call genes.
-The statistical power of these numbers (along, perhaps, with some observational bias) was absolutely necessary for recognizing some of the ratios that helped him formulate his ideas. With smaller numbers of offspring, random chance would probably have obscured the ratios that Mendel recognized. His achievement in recognizing them is all the more remarkable in that the statistical test we now use to identify results produced by chance wasn't developed by Fisher until over 50 years after Mendel did his work. 
-The other key insight was that units of inheritance are discrete and they remain discrete across generations. So, a tendency to yellow pea pods wouldn't be diluted or blend (as many biologists, including Darwin, suspected), even if it were to remain hidden for years in plants that produced green ones. Because of dominant traits, what we saw with our eyes when looking at a plant might only be a partial indication of the full genetic legacy they carried—looks not only could be deceiving, they often were. Really, it's no surprise that Mendel's work wasn't widely recognized; biologists of the time probably didn't know what to make of it.
-Mendel attempted to generalize his findings into laws, which governed inheritance of genes in organisms that have two copies of them. Germ cells obey the law of segregation, in that they only carry one of the two possible copies of the gene, and the genes follow the law of independent assortment, which suggested that individual genes would end up in those germ cells through an essentially random process. With his laws in hand, Mendel turned to other plants in an attempt to see just how general they were. One of them obeyed the law; the other cross turned into a technical nightmare of low fertility and phenotypes that didn't fall into a neat dominant/recessive pattern. So even Mendel realized that his ideas were not likely to be complete. 
-In a world where biologists weren't really experimentalists and most thought there had to be some sort of blended inheritance, not even the successful experiments went over well. Mendel ended up being promoted to abbot two years after his publication, effectively ending his scientific career.
-In the intervening 35 years, anyone who attempted to take the same sort of experimental, big-numbers approach to inheritance would have been lucky to find a species and set of genes that obeyed Mendel's laws, for all the reasons we're about to go into. Even as experimental biology became more common, the conceptual leap that Mendel made remained a significant barrier; one of the three people once credited with rediscovering Mendel's ideas has since been removed from that list by science historians, who have become convinced that he didn't actually understand what he was doing.
-Nevertheless, people eventually saw the sorts of patterns identified by Mendel, and quickly recognized he had beaten them there. But, with his laws being examined by the scientific community, it took less than a decade for researchers to start to identify some serious limitations to the patterns of inheritance seen by Mendel. Some of these will be familiar to anyone with a high school biology education: incomplete dominance, environmental influences, and so forth. But the basic insight Mendel had—that genes were more or less invariant across generations, even if the traits they promoted would sometimes be impossible to detect—could be used to explain all of these exceptions.
-His experimental approach also turned out to be key in understanding a different phenomenon, which we now call linkage. Before the decade of rediscovery was gone, researchers had found that, in many cases, there were large deviations from Mendel's law of independent assortment. For some pairs of genes, the specific versions (called alleles) inherited from a parent tended to continue to be inherited together; once separated, they tended to remain separate.
-Thomas Hunt Morgan, working with the fruit fly, used Mendel's approach of controlled matings and massive number of offspring to characterize linkage. He show that patterns of linkage were consistent and the frequency of reassortment was more or less additive, allowing the locations of genes to be mapped. Eventually, this enabled him to demonstrate that the linkage seen through genetic crosses had a direct relationship with the order of genes on a chromosome. Early in the process of studying Drosophila genetics—according to various stories, it was the very first mutant isolated by his group—Morgan discovered a sex-linked trait, one that was far more common in males than females. Ultimately, he identified the cause of this pattern: the gene for this trait was recessive, but present on the X chromosome. Females would only show the recessive phenotype caused by the mutation if they inherited two copies, one on each of their X chromosomes. Males, with only one copy of the X, would express the trait whenever they inherited it.
-Mendel's law of segregation worked when animals had two copies of a gene, the diploid state. When it comes to the X chromosome, male flies are haploid—they've only got one copy. Another law bites the dust.
-In fact, Mendel's attempts to extend his work in peas probably ran up against a more significant version of haploidy. In an attempt to determine if his laws applied to animals, Mendel stayed in the garden and started working with honeybees. A bad choice, considering that honeybee males are the products of unfertilized eggs, and thus are haploid for every single chromosome. Between some confusing results and his sense that he couldn't control the matings of the queens, Mendel didn't get very far on this experiment before his promotion to abbot. As it turns out, various forms of haploidy and other weird-ploidy are fairly common in plants, animals, and elsewhere. The platypus, for example, carries ten copies of its sex chromosomes for reasons that still aren't clear. Yeast will happily go through life in a haploid state until given a chance to mate, at which point it will fuse with another haploid cell, form a diploid, and continue on as if nothing else has changed, provided it's supplied with enough nutrients. Bacteria are normally haploid, except that sections of the genome can sporadically be transferred between individuals by viruses or through a process called conjunction (they also have circular chromosomes, which caused early gene mappers fits).
-Perhaps the weirdest behavior takes place in ciliates, which have a regular diploid genome that they only use for mating. The actual business of running the cell is handled by a nucleus that takes the diploid genome, chops it into lots of small chromosomes, and then amplifies these up to an average of 50 copies each.
-But, even though Mendel formulated a law that only applies to diploids, it turns out that the basic ideas will more or less apply to any situation, thanks to the extension to his work provided by Morgan. All you need to do is count the number of each type of chromosome, and you can generally predict what the genetic behavior is going to be like. For that reason, many of the exceptions to the laws formulated by Mendel have ended up being lumped under the umbrella of Mendelian genetics. In fact, the general concepts outlined by Mendel worked so well that they survived right through the modern molecular era. We can now look at DNA sequences and pick out individual features of genes, and track them from generation to generation. In fact, you could reasonably argue that it would have been difficult to make sense out of DNA sequences without organizing concepts like genes. We're also getting a good grip on the protein complexes that ensure the independent assortment of chromosomes during the production of germ cells.
-That said, the molecular era has identified a few cases where Mendel's laws don't apply, and even the revisions and extensions we've made to them can't make sense out of what we see. Over a hundred years after Mendel's work, we realized that some of the eukaryotic cell's organelles, mitochondria and chloroplasts, had their own genome. These all get inherited from the mother via the egg cell, and essentially obey rules closer to those of population genetics. Of course, population genetics was developed in order to understand how Mendelian inheritance influences evolutionary processes. The other major exception is imprinting, where the DNA is chemically modified, sometimes in response to environmental cues, and the modification can be retained across generations. This epigenetic inheritance is pretty rare, although there are some human diseases that are caused by improper imprinting.
-One of the odd things with imprinting is that both the DNA sequences that are targeted for modification and the enzymes that perform the modification reside on the regular nuclear chromosomes and are inherited in a Mendelian manner. So, although imprinting seems to be the perfect example of non-Mendelian behavior, it's entirely possible to study it using standard genetic approaches.
-There are a few other rare cases of odd patterns of inheritance, but, a century after Mendel's rediscovery, the exceptions to the inheritance that bears his name are, well, exceptional, and pretty uncommon. So, nobody paid attention to Mendel while he was alive, and it took over 30 years for anyone to figure out what he had done. Almost as soon as they did, they started finding out that everything he'd suggested was wrong or severely limited in various ways. Despite all that, we recognize him as brilliantly ahead of his time, and have named an entire field after him. How did that happen?
-There seem to have been a number of factors, but the most significant is simply the fact that genetics was a complete black box when he started his work. People trying to intuit their way into matters wound up stuck between two competing phenomena: a typical offspring is usually a mix of the traits of its two lines of ancestors, suggesting some sort of blending, yet traits that have been hidden for generations can suddenly reappear, suggesting blending couldn't possibly be taking place.
-Because Mendel provided some organizing principles to test ideas against, he broke open the black box. Whether those principles were right or wrong wasn't anywhere near as important as providing a model people could test their observations against. In other words, even people who set out to demonstrate that Mendel was wrong were way ahead of the game compared to anyone that had to develop their own genetic principles from scratch.
-Another reason that Mendel's work aged well is that his basic approach aged well, even if his ideas didn't. Although my PhD years seem like ancient history to most of the staff at Ars, they were still over 120 years after Mendel did his experiments. Despite the years, a lot of the work—controlling matings, scoring individual traits, building up large numbers—involved precisely the same approaches that paid off over a century earlier. It was pretty easy to call the work Mendelian when it looked so much like the same thing Mendel had done.
-The last reason that Mendel erred so successfully is that scientists were quick to link the basic outlines of segregation to something tangible and physical. The publications that rediscovered his principles date from 1900; in Thomas Morgan's Nobel lecture, he points out that it only took two years before someone had recognized that chromosomes displayed the sort of behavior that would explain segregation and independent assortment. By a decade after that, Morgan was already well on his way to confirming this idea.
-That rapid association of Mendel with chromosome behavior was key, because most of the exceptions to Mendel's laws—sex-linked traits, recombination, and so on—could also be associated with chromosomal behavior. So even though many phenomena were technically exceptions to the original laws, it was almost always possible to trace their intellectual lineage back to Mendel's work.
-There's a famous phrase attributed to the physicist Wolfgang Pauli, who suggests that some ideas are "not even wrong"—they aren't sufficiently connected to reality or produce testable consequences. Mendel was wrong, or at least limited, in a lot of ways, but not so badly wrong that his ideas couldn't spawn over a century of phenomenally successful science.</t>
-  </si>
-  <si>
     <t>HTML5 video in Internet Explorer 9: H.264 and H.264 alone</t>
   </si>
   <si>
@@ -494,19 +263,6 @@
     <t>It's already been announced that Microsoft will be supporting HTML5 video in  …</t>
   </si>
   <si>
-    <t>Microsoft has put its stake in the ground and committed to supporting H.264 in Internet Explorer 9. That the next browser version would support H.264 HTML5 video was no surprise (though the current Platform Preview doesn't include it, it was shown off at MIX10), but this is the first time that Microsoft has provided a rationale for its decision. More significantly, this is the first time the company has confirmed that H.264 will be the only video codec supported.
-H.264 certainly has some advantages. It's standardized, resulting in wide support in both software and hardware. This also provies a migration path of sorts from Adobe Flash; the same H.264 video file can be played both in Flash and via the native browser support, which allows site owners to target both HTML5 and Flash users with a single codec. But the biggest advantage cited by Microsoft was intellectual property: the IP behind H.264 can be licensed through a program managed by MPEG LA. Other codecs—the blog post named no names, but Theora is obviously the most widespread alternative for HTML5 video—may have source availability, but they can't offer the same clear IP rights situation.
-The codec choice is a long-standing issue with HTML5. The current draft specification refrains from mandating any specific codec, and the result is a schism. Firefox and Opera have gotten behind Theora, citing its openness; Safari and now Internet Explorer 9 have gone for H.264. Chrome supports both. It's not impossible that the spec will ultimately be changed to specify a specific codec—and that codec might not be H.264. If that turns out to be the case, Redmond will likely have to revisit the decision.
-H.264 has its problems, though. It's currently royalty-free for Web usage, but there are no guarantees that this will continue in the future. In contrast, Theora is perpetually royalty-free.
-The status of Theora might change if patent concerns emerge—though designed to avoid patented technology, there are no assurances in the murky world of software patents—and so there is some risk to browser vendors. But the unfortunate reality is that's true of H.264 too. MPEG LA may believe it holds all necessary IP rights to H.264, but one never knows when a patent troll might emerge unexpectedly from the deep. H.264 might be the safer option, but the difference is not as clear as Microsoft makes out.
-The decision may also be premature if Google opens up VP8, as is widely expected. If Google does indeed publish the source, and offers perpetual royalty-free usage of the VP8 patents, the codec may offer the same level of freedom and openness as Theora, combined with the corporate backing of Google, and assurances that both Google (and On2 before it) have done their due diligence.
-Google would also have the power to promote VP8 in other ways; as owner of YouTube, the company could, in principle, make VP8 one of the most widely used codecs on the Internet. Adoption by the company's own Chrome browser is all but certain, and if the terms are suitable, VP8 could also find its way into Firefox and Opera. Such a move would give VP8 considerable momentum.
-Microsoft's decision to support only one codec is also a little surprising when one considers the way in which video support will be implemented. Internet Explorer 9 will use the Media Foundation media decoding framework that's part of Windows Vista and Windows 7—another reason that the browser won't run on Windows XP. Just as with its predecessor, DirectShow, Media Foundation is an extensible framework that allows third-party codecs to plug in to the media infrastructure so that applications can use them automatically.
-If Redmond allowed IE9 to use Media Foundation without any restrictions, it would enable the browser to use whatever codecs were installed; H.264 is already included with Windows 7, so it might be a good default, but there's nothing preventing Google from producing a VP8 plugin for Media Foundation, for example. This would provide automatic support to IE9 users for VP8 video.
-That said, with the browser locked down in its protected mode sandbox, and the fact that Media Foundation codecs should all be modern (and hence, security-conscious), the risk seems marginal. Morever, there are likely other ways to feed malicious video into insecure codecs (embedding Media Player, for example), so the level of protection this offers isn't clear.
-HTML5 video is an important part of Internet Explorer 9, and given the big-name industry support for H.264, Microsoft's decision was not altogether surprising. As welcome as the new capabilities are, the decision to rule out the more open codecs is somewhat disappointing.</t>
-  </si>
-  <si>
     <t>The once ubiquitous floppy finally being axed by Sony</t>
   </si>
   <si>
@@ -519,12 +275,6 @@
     <t>Sony has announced it will stop producing 3.5" floppy disks by 2011. We were  …</t>
   </si>
   <si>
-    <t>The 3.5" 1.44MB HD floppy may finally be going gentle into that good night. Sony, one of just a few companies that still produce the archaic computer storage media, has announced plans to end production of floppies in March 2011.
-The company sold about 12 million 3.5" floppies in Japan last year, which represents 70 percent of that market (and incidentally, about 17TB of data capacity). Floppies are still used with legacy equipment in education and research sectors, according to Sony. However, the company cited dwindling demand as the reason for ending production.
-The 3.5" floppy largely replaced the 5.25" floppy by the early '90s, but other storage mediums had begun to replace it by the late '90s. Apple's original iMac was the first mass-market computer to come without a floppy drive in 1998, and Windows PCs gradually followed suit. Iomega's 100MB Zip disk format became quite popular for larger file transfer for a short while, before succumbing to cheap 650MB CD-Rs early last decade. Today, most file transfer happens via the Internet, USB flash drives, or relatively low-cost, high-capacity portable hard drives.
-Memorex and 3M offshoot Imation still offer floppies for sale for the time being, but with Sony ending production, we expect the floppy will rage no more against the dying of the light. Frankly, we're a little surprised it raged this long.</t>
-  </si>
-  <si>
     <t>A 160-Year-Old Photographic Mystery</t>
   </si>
   <si>
@@ -537,25 +287,6 @@
     <t>In 1851, Levi Hill claimed he invented color photography. Was he a genius or a fraud?</t>
   </si>
   <si>
-    <t>There, do you see it?” she asks, holding up a small, silvery rectangle in the half-lit room.
-For a moment, I do: a splash of blue on a bird’s wings. Then it disappears.
-The photograph, captured some 160 years ago, reveals the outline of an owl and three smaller birds.
-Lifting another plate from a storage box labeled “Hill, Levi,” Michelle Delaney sighs as she examines it.
-“Oh, that makes me sad. You used to be able to make out the outline of the village in the center here, but it’s faded even more now,” she says. I see only a blur of brown, gray and white; what a ghost might look like caught on camera.
-In a sense, that’s what Delaney, 44, curator of the National Museum of American History’s photographic history collection, has been chasing the past three years: the ghost of the Rev. Levi L. Hill. In the years since his death in 1865, a few historians praised Hill as the unacknowledged inventor of color photography. (A Scotsman, James Clerk Maxwell, is generally credited with producing the first successful color photograph, in 1861.) Most, however, concluded that Hill was a hoodwinker.
-Hill was a Baptist minister in West Kill, a tiny town in the foothills of New York’s Catskill Mountains, when he began experimenting with daguerreo­types, an early form of photography. In February 1851, Hill made an astonishing claim: “I now have forty-five specimens, all of which present the several colors, true to a tint, and with a degree of brilliancy never seen in the richest Daguerreotype,” he boasted in a letter to the Daguerreian Journal, the first commercially produced photography magazine. He vowed to continue experimenting until he “perfected the discovery” and assured fellow photographers that, after patenting the process, he would share it with all of them for a “reasonable” price.
-The journal’s editor, S. D. Humphery, lavished Hill with praise, christening his invention a “Hillotype.” But the fervor soon soured. Hill had promised a public demonstration of his works and process, but he kept pushing the date back.
-Hill had tried—and failed—to patent his method. An 1853 government document stated that “existing patent laws would not afford to the inventor the security required” for his chemical process. Hill turned his back on photography altogether in 1855 after his wife and research partner, Emmeline, died at age 38.
-He did finally publish his ideas in an 1856 volume titled A Treatise on Heliochromy, but by then, says Delaney, most of his peers “had thoroughly dismissed Hill’s work as fakery.”
-By the time he died nine years later, obituaries referred to his Hillotypes as a failed experiment.
-“Hill had a lot of supporters and a lot of naysayers,” says Delaney. Hoping to resolve the question of what Hill actually accomplished, she teamed up with independent conservator Corinne Dune and experts from the Getty Conservation Institute and George Eastman House. They analyzed the Smithsonian’s collection of 62 Hillotypes, using the latest methods of spectroscopy to identify materials and pigments without damaging the works. What they found largely vindicated the inventive clergyman.
-“There’s limited color, but a wide enough range to see that he was successful,” Delaney says. But the project’s researchers also discovered that some of Hill’s works had been hand-colored or enhanced.
-Delaney, who is still researching Hill, plans to include a chapter about him in a book she is writing about early American photography. “I think his legacy is that he really inspired people, in both America and Europe, to go forth and work with color processes,” she says.
-She has made two visits to West Kill to consult local historians and archives, and hopes to track down more of Hill’s work, since his logbooks show he was prolific. She is particularly curious about the contemporary European art prints Hill often used as photo subjects.
-“West Kill is still basically a one-block town, so I’m thinking, where did he get all those European prints?” And, she wonders, “How would someone not trained in chemistry learn to do this stuff?”
-At the very least, he was a colorful character.</t>
-  </si>
-  <si>
     <t>https://www.smithsonianmag.com/travel/breeding-the-perfect-bull-9671075/</t>
   </si>
   <si>
@@ -568,95 +299,6 @@
     <t>A Texas cattleman used genetic science to breed his masterpiece – a near-perfect Red Angus bull. Then nature took its course</t>
   </si>
   <si>
-    <t>There once was a bull, an astonishing bull with a handsome, wide muzzle, stunning scrotal circumference and a square frame solid as a sycamore. He was the son of Cherokee Canyon, the grandson of Make My Day—a noble pedigree. The cowboy who designed him, who chose the semen, selected the dam, prepared and inseminated the uterus, named him Revelation. “We don’t intend to present this bull as divine,” the cowboy, Donnell Brown, would write in his 2005 sale catalog, “but we do count it a blessing to have raised him.” Brown was a salesman by nature, but not given to hyperbole. He believed in his heart that Revelation, at just a year-and-a-half old, could become the most storied bull in the history of the Red Angus breed. Finally, after decades of tinkering: might this be the masterpiece? Every October, cattle buyers from all over the United States gather near Throckmorton, in north-central Texas, where the R.A. Brown Ranch has been selling breeding cattle for more than a century, and where as many as 800 head will go at auction in a single day. Fathers, sons, grandsons—the ranch has passed through five generations. Donnell Brown, 41, is the current cowboy in charge, and at the 2005 R. A. Brown Ranch Bull &amp; Female Sale he sold Revelation to a Houston businessman with a weekend ranch for $12,000.
-In time, the bull could turn out to be worth much more. Top breeding bulls—once they’re proven to produce prime calves—can sell for more than $100,000. In the breeding business, the buyer gets the animal, but the seller typically retains an interest in the genetics. Donnell kept the rights to half of Revelation’s semen. It would be two years before anyone would know the quality of the bull’s progeny. Donnell wears creased Wranglers, a starched plaid shirt with long sleeves and a white hat with the brim cupped obediently up—not in some floppy, haphazard shape like East Texas cowboys wear. The spurs on his boots bear his initials, but he does not wear jingle bobs on them, those dangling silver baubles you see on flashy Arizona cowboys. No, cowboys in Throckmorton consider themselves West Texas cowboys: starched and ironed, just the way cowboys are supposed to be. Donnell is tall, slim, with a quarterback’s build and the deep blue determined eyes of a man who is hanging on with all his might for the ride. No giving up on the four life goals he set for himself at age 23: get to heaven; be the best possible husband and father; be healthy and happy; produce the most efficient beef cattle in the entire world by converting God’s forage into safe, nutritious, delicious food for His people. He wears a clean, straight mustache above an intelligent smile.
-Two years after he sold Revelation, Donnell’s dream came true: the bull’s babies were at the top of the class. The weekend rancher from Houston didn’t quite know what he had, so Donnell called him to explain.
-“A superstar,” Donnell told him, pointing out, as he often has to do, that a bull in today’s marketplace is like a player in the NFL draft, except with a longer roster of stats. He told him that Revelation’s progeny were showing beef marbling scores that were off the charts, along with breathtaking rib-eye areas. Producing a bull whose offspring have even one of these super stats is like hitting the lottery. But two? A near miracle.
-“You should syndicate Revelation,” Donnell advised, offering to bring the bull back to the R. A. Brown Ranch, where it would enjoy higher visibility, the conditioning of an athlete and Donnell’s help in selling shares to investors. Word spread fast. Donnell and the rancher sold seven shares of Revelation for $1,650 apiece and had 14 more ranchers ready to pony up.
-So of course Donnell felt blessed. Of course he was feeling something resembling pride when he went out on a routine cattle call one warm October morning in 2007 and looked around the east holding pasture.
-“Come on, bulls!” Donnell cried. He sprinkled sweet grain on the brittle prairie grass, and the bulls gathered like children after the big piñata spill. All of them but one. “Come on, bull! Come on, buddy!” Donnell called to the slacker lying some 20 yards distant. It was Revelation. “Hey!” He went closer, and closer still. “Come on, buddy!”
-Revelation lifted its head but otherwise remained as inert as a lump of clay. The bull could not get up. Donnell bent over to find that its right rear leg had been mangled, most likely in a fight with another bull, a battle for turf or just a boyish tussle for fun. Revelation was crippled, and a crippled bull is worthless. A crippled bull produces less and weaker sperm. A crippled bull is sent straight to the packinghouse.
-“No,” Donnell said. “Please God, no.”
-The average American at the backyard grill who cares to think about the steak sizzling before him may imagine little beyond the packinghouse, where meat is cut and shrink-wrapped, or perhaps the feedlot, where beef cattle fatten up on corn on their way to market. But those are only two stops—relatively short and highly industrialized stops—in a long process. Before they get to the feedlot, cattle live the lives their bodies were built for: grazing beside their mothers on endless pastures at ranches called “cow-calf operations.” These are independent ranches, about 750,000 of them in the United States, most of them with fewer than 50 head. The R. A. Brown Ranch, which has 2,000-odd head, belongs to a subset of these ranches that specialize in breeding: the “seed-stock providers.” They begin the beef production chain. The cowboys who run them are the inventors, the tinkerers who choose the genetics that determine the qualities of America’s tenderloin, rib eye, sirloin, filet mignon and burgers.
-April marks the earliest days in a commercial cow’s life, and arguably the happiest. The calves at the R. A. Brown Ranch, just 6 to 8 weeks old, have been tagged and vaccinated, and now wander freely, chewing the wild grasses of Texas. The sunrise is so red it fills the sky with stripes of fire and turns the cowboy hats pink. Jeff Bezner, a 29-year-old cowboy with prematurely salt-and-pepper hair, glasses and an air of sparkling innocence, has the back of this cattle drive, while two other cowboys take the flanks. They keep the cattle in a clump, pushing them from pasture to paddock. Herding cows is not difficult, especially Red Angus, famously gentle and polite. (For a good time, try wrestling up some Brahmans.) The cows thunder obediently through the buffalo grass as the cowboys’ horses amble and the men occasionally wave their arms, letting out a “Wheeet, wheeeet,” or “Get on now, gals!”
-“I never said nothing about love,” Jeff says to his team, referring to the love he has, in fact, been talking about all morning. (Jeff wants a wife.) A cowboy on a cattle drive has time to ponder such matters.
-“You’ve known her for a whole six days!” one shoots back.
-“Eight,” Jeff says, slapping his chaps. “I’m telling you, she’s awesome.” He whistles through his teeth. The cattle move as one, a rumbling blanket of rolling amber, humming their lazy cow songs: aaaroooom, aaaroooom, aaaroooom.
-Beef, even now, is still personal, is cultural, is cowboys.
-It isn’t like pork or poultry. Commercial pigs and chickens live their whole lives in industrial-size barns. Beef, in its beginning stages, will never be produced that way because a simple fact remains: all cows eat grass. You need land to grow calves. Lots and lots of land. That land is divided among many owners. Beef production is unlike any other agricultural industry in that it has remained utterly dependent on the family farm or the extended-family farm, manned by the same people who sing in the church choirs and run the school boards and football leagues that knit the fabric of small towns like Throckmorton. Beef production is the largest single segment of American agriculture, a $76 billion industry, and yet more than 97 percent of U.S. cattle ranches are family-owned and -operated.
-The average American eats 62 pounds of beef a year, or almost three ounces a day, and shows no sign of slowing down; as a group, Americans regularly consume more than 27 billion pounds a year. This is, in part, a function of food science and the seed-stock providers: beef keeps getting tastier.
-Beef is simultaneously low and high tech. Past necessarily coexisting with future. Because of the cowboys and because of the human desire for better meat.
-To create the finest steaks, there really is nothing as important as a fabulous cow. Except, of course, an amazing bull. 
-On the day he found Revelation crippled in the east holding pasture, Donnell stood there feeling sick. Gut-sick, like a man watching his house burn down. In the silver liquid-nitrogen tank up in the ranch’s artificial insemination center, he had only about 100 “straws,” or doses, of Revelation’s semen—hardly a gold mine.
-He took his cellphone off his belt clip and called his wife, Kelli, back at headquarters.
-“Oh, Donnell,” Kelli said, desolated. She told Betsy, Donnell’s sister, who works in the office, too, and soon word passed around the family.
-All three of Donnell’s siblings, and their spouses, share ownership of the ranch with him and Kelli. She serves as marketing maven and quiet, sturdy voice of wisdom—and as president of the Red Angus Association of America. Ranch headquarters is the small red house where Donnell grew up and now lives with Kelli and their two teenage boys, Tucker and Lanham.
-In the end, Donnell decided no, he would not give up on Revelation. He would try to save his masterpiece. So he hauled the bull away in a trailer and drove five hours to a veterinary hospital near Austin, where he learned that Revelation had torn two ligaments, the anterior cruciate and medial collateral, in its right rear knee. “Nothing we can do for him here,” the vet said, pointing Donnell to specialists at Kansas State University, 11 hours away. So Donnell got in the truck and drove. Revelation was like Barbaro, the racehorse. If ever there was an animal worth going the extra mile for, it was Revelation.
-“We can try to construct a new knee,” the Kansas vet said, with only vague encouragement in his voice. “Sure, we can try.”
-Donnell’s parents, Rob and Peggy, used to live in the red ranch house, but in 1998 they retired to the fancy house in town with the big columns out front, just as Rob’s parents had done before them. Before she married Rob, Peggy’s name was Peggy Donnell, and that’s how Donnell got his name.
-Rob, now 74, is himself legendary in the beef world; he played a vital role in determining the kind of steak America now eats. He came of age when the Hereford was the cattle of choice for the U.S. beef industry—a reliable, thrifty breed with far more muscle than the Texas Longhorn, its predecessor as America’s main beef cow.
-At Texas Tech, Rob had learned of a brave new world. “Continental breeds!” he said to his father, R. A., after he came home with his degree in agriculture in 1958. Breed a Hereford with, say, a Brown Swiss and get a larger carcass with, perhaps, the same quality meat—or better! Rob had other ideas, other breeds, other dreams. R.A., a man of tradition, would have none of it. Not until 1965 did he give Rob his reluctant blessing to crossbreed; within days, he died of a heart attack. If he hadn’t given his assent, the ranch never would have enjoyed its explosive success in creating better and better meat.
-Rob crossed a Hereford with a Brown Swiss and sure enough, he got cattle fully 100 pounds heavier at weaning, with the same hardiness as a Hereford. “Brilliant!” he thought. But the market did not quite agree. The cattle were not uniform in color, like the good old-fashioned amber Herefords. Some were brindle and some were gray. Coat color has nothing whatsoever to do with carcass quality, but even so, Rob’s cattle were discounted at auction because they looked funny.
-So Rob got back to work. He mixed his Herefords with Simmental, a different Swiss breed, and that solved the color problem. To that hybrid he added Simbrah, a Simmental-Brahman mix, to create cattle with heat tolerance. He added Red Angus for marbling. He got a planeload of Senepol from the Virgin Islands to add a gentle demeanor. And by 1989 he had a hybrid called the Hotlander, which is still popular among some breeding connoisseurs.
-By then Rob’s son, Donnell, was at Texas Tech, studying genetics. It’s the Throckmorton way, after you grow up cowboying and playing football for the Throckmorton High Greyhounds (2005 state six-man champions!).
-When he came home with his degree in 1993, Donnell said, “Dad, it’s better to be on the leading edge than the bleeding edge.” His father may have been ahead of his time, Donnell thought. He was creating superior beef, absolutely, but not necessarily beef the marketplace understood. Donnell brought science back from Texas Tech, but he also brought marketing.
-Never a place for subtleties, the market understood one thing: Angus. Over the past quarter-century, brilliant marketing by the American Angus Association has made the word “Angus” synonymous with “best steak in the world.” Specifically Black Angus, even though Red and Black Angus carcasses are indistinguishable without the hide. But the American Angus Association promoted black, and so in today’s market, solid black cattle, for reasons almost entirely psychological, bring top dollar.
-“We have to create the meat that people want to buy!” was, and remains, Donnell’s main point. Rob agrees, of course, but on the other hand he has the soul of an inventor and can’t stop thinking of awesome new things to try. The father is the boy in this relationship. Donnell: buttoned-up, doing the right thing, selling it with a smile. Rob: trial and error and joy.
-The R. A. Brown Ranch still offers its Hotlander composite, but Donnell directed the business toward an Angus focus, with a twist: become the premier Red Angus breeder, and have the genetics to prove it.
-And he had those genetics in Revelation. He had them.
-The vets worked on Revelation’s leg for a year and a half. Surgery and rehab, surgery and rehab, and more surgery. Finally, in August 2008, the vet shook his head no.
-“OK, then,” Donnell said. “OK.”
-“It was like a close friend dying of cancer,” he says today. “You’re almost relieved when it’s over. Almost.”
-He did not say goodbye. He sent Revelation to the packinghouse, where the prize bull became 1,200 pounds of hamburger. Sometimes, Donnell says, he wishes he could have saved Revelation’s head like a deer’s and mounted it. Sometimes he does think that way.
-But mostly he thinks about Revelation’s ear. He saved a notch from Revelation’s left ear. He sent it to the ViaGen cloning lab in Austin. And there it sits, on ice.
-To achieve uniformity, and to maintain quality control, Donnell likes all his cows to be on the same estrus cycle. That’s why, in April and May, during breeding season, a lot of them wear seeders—vaginal plugs carrying progesterone, each with a blue string for easy removal in a few days. The progesterone keeps the cows from coming into heat. When the plugs come out, each cow gets a shot of prostaglandin, which ultimately results in ovulation. At that point, one of the cowboys puts on an arm-length plastic glove and inserts an artificial insemination syringe loaded with 20 million sperm cells. George Self, who has cowboyed at the R. A. Brown Ranch for 57 years, is by far the best at this. “He has a gift with his hands to know how to feel into a cow that most people don’t have,” Donnell says. George will feel the reproductive tract with one arm, then with the other hand, guide the syringe through the cervical rings (the tricky part) and deposit the semen at the opening of the cervix. It takes maybe 60 seconds per cow, and every cow on the ranch, 1,300 in all, is bred that way, as many as 400 in a single day.
-The finest cows, the genetically superior ones, are put on a different regimen. AbiGrace is the Browns’—and the breed’s—rock star in this category. She will be overstimulated for maximum egg production and inseminated with choice sperm. The resulting embryos, as many as a dozen, will be flushed and frozen. Donnell could sell those embryos for more than $1,000 a pop on the Internet if he chose, but usually they are inserted into surrogate cows—proven dams that don’t, let’s say, have the genetics to be worth breeding. AbiGrace can then be stimulated to make more embryos, and more still.
-Without scientific assistance, a mature cow will produce one calf a year; with embryo transfer, AbiGrace can crank out 25.
-Cloning Revelation is a big decision, and Donnell does not know what to do. He has never cloned a bull before, never imagined himself stuck in the mud of such profound uncertainty. For about $20,000, an exact genetic replica of Revelation could be engineered in the lab and soon enough be out there grazing on the silver bluestem. Actually, technically, Donnell could order up two new Revelations, or 20 Revelations, or more. But: “There’s the question of playing God,” he says, “and there’s also just the business model to consider. Like I tell my dad, it’s better to be on the leading edge than the bleeding edge.”
-Donnell stares at the horizon a lot; he spends all day in his truck, so many days in his truck, covering hundreds of miles a day sometimes to look at bulls or pick up cows. On this April afternoon he’s just returning from a ranch in Coleman, Texas, where he transferred 70 valuable Red Angus embryos into some surrogates. He’s headed down to his ranch’s artificial insemination center to check on the action there.
-He parks. He notices a splotch of dried mud on his starched jeans. He takes out a knife he keeps clipped to his belt, unfolds it and scrapes that mud right off.
-The artificial insemination (AI) center is a modest white tin barn surrounded by a catacomb of pens and clanking red gates. It’s at the far end of the ranch, flanked by shady hills providing cool comfort to hundreds of cattle. Atop the hill, a lone oil derrick bounces its lunatic head up and down.
-Inside the AI center, the main event is the mighty gray metal chute, a monstrous contraption that can, with the benefit of hydraulics, hold a cow or a bull in place. Then a cowboy can do what he needs to do: inseminate, castrate, brand, palpate.
-Today, a freelance cowboy who specializes in ultrasound technology is here with his machine, which is connected to a computer, which is connected to a thumb drive, which contains information that will eventually be uploaded to a lab in Iowa. Technicians there will run a program to translate the images into numbers.
-“Howdy, sir!” Donnell says, all smiles.
-“How’s your boy?” the cowboy says. “He’s playing ball next year?”
-“You spying for another team?” Donnell says with a laugh. “Yes sir, Tucker’s looking to play quarterback. We’re proud of him, mighty proud of him.”
-“I’m about through with these bulls,” the cowboy says, holding on to a humming electric shaver. “About a half-dozen left. Seeing some good scores.” He’s shaving some hair from the back of a 926-pound young bull. He squirts a shot of lubricant on the hide, then gently places his ultrasound wand over a spot between the 12th and 13th ribs. The image that emerges on his computer screen is unmistakably and perhaps unsettlingly a rib-eye steak. Clear as on a plate.
-“Nice marbling,” Donnell says. “OK, real nice.”
-The cowboy then gets a shot of the bull’s back fat. All carcasses are trimmed to the industry standard of a quarter-inch of body fat, so you’re hoping to see that score low, and marbling high. The complete examination takes less than five minutes, and when the ultrasound cowboy is through he pulls a lever, releasing the bull. The bull roars out while another thunders into the chute with a great clank and clatter.
-Once processed into numbers, the data will go to the Red Angus Association of America, where a cowboy like Donnell can pull them up on his Blackberry: the Expected Progeny Differences (EPDs) of one bull versus another and one cow versus another. A herd’s full set of EPDs reads like endless pages of Nasdaq offerings, a chart of numbers expressing the relative values of carcass weight, marbling, rib-eye area, fat thickness, maternal milk, cow energy value, calving ease, birth weight, weaning weight, yearling weight—14 traits in all—that each animal’s progeny has been statistically predicted to achieve.
-EPDs can be difficult for the weekend rancher to master, but for a modern seed-stock provider like Donnell the information is gold. Get a dam with the best EPDs for calving ease and cow energy value, and breed it with a bull with the best EPDs for marbling and rib-eye area and maybe weaning weight times yearling weight (an online EPD Mating Calculator can help with this task), and see if you can’t just produce perfection. Tweak with the next generation, and try again, and again.
-And then one day you find you have created something no cowboy has ever created before. Of course you name it Revelation. And of course, when it gets crippled, you do everything in your power to save it. And of course if you lose the battle and have to send it to slaughter you...clone it. Really? Really?
-To date, no more than a thousand cattle have been successfully cloned in the United States, and market reaction has been mixed. People aren’t sure they want to eat cloned beef.
-But still. It’s...Revelation! It’s Donnell’s masterpiece. Of course, to clone the bull he would need the approval of all seven ranchers who own shares in the syndicate.
-Late one summer night, Donnell sits at his computer, and he types an e-mail to them, and he reads it over to make sure it sounds right. He pauses awhile. Nothing to lose by just putting the question out there, right? Nothing to lose.
-And now it is October, and a beautifully wet one at that. Throckmorton averages just 26 inches of rain a year, and so drought is a constant concern; all this precipitation feels like a blessing, greening fields of wheat and refilling water holes. The 2009 R. A. Brown Ranch Bull &amp; Female Sale is just a few weeks away. The leadoff bull is Turbo, son of Destination, great-grandson of Cherokee Canyon, great-nephew of Revelation. He has impressive EPDs—the highest inner-muscular fat score of any bull in the sale.
-“Turbo charge your program,” Donnell wrote on Page 67 of the sale catalog. “Thrust your program to the forefront of the fastest-growing breed in America with Turbo.” He expects $20,000 for the bull, plus an average of about $3,000 apiece for the 500 others.
-And if all that isn’t enough good news, the Throckmorton Greyhounds are undefeated through seven games with Tucker Brown as quarterback.
-Plus Jeff has a new girlfriend. Actually, two. The eight-day relationship did not work out, but now there is Hannah and there is Fatima. Hannah is pretty much perfect in every way but, Jeff says, she’s busy as a tick. The Fatima situation makes no sense whatsoever. She lives off in the Dallas-Fort Worth metroplex, goes to happy hours and movies. She’d never even met a cowboy before Jeff. Makes no sense at all! How is it that they talk forever on the phone? Forever. He’s honest with her. He says: “There is Hannah.” He says: “I’m Christian and you’re Muslim. How would that deal work out? What would we do with our kids?” He says: “I’m not moving to no metroplex.” He says: “I’m a cowboy.”
-Fatima drove all the way up from Dallas the night before—150 miles—to bring Jeff a present.
-“What does a city girl know about a cowboy shirt?” Jeff is saying about the gift the next morning at the saddle house.
-“You should have just told her thank you,” one of the other cowboys offers.
-“But I didn’t understand it. I’m like huh? It had these shoulder flap deals. I’m like, what are these for?”
-“You should have just said thank you.”
-“She said she got it from some top-notch store,” Jeff says. “Norbert’s?”
-“Nordstrom’s!”
-Donnell walks up.
-“Morning, gentlemen!” he says. “Ready to roll?”
-“Yes, sir,” Jeff says. “We’ll get ’er loaded here in a moment.”
-They’re headed to a ranch rodeo five hours away, for working cowboys only—not those highly paid professional bull riders you see on TV. This is ranch versus ranch, all the cowboys testing the skills they actually use each day. Roping, doctoring, milking, bronc riding. (No bull riding, because no working cowboy would ever have reason enough—or be stupid enough—to climb on the back of a bull.) Jeff will ride bronc tonight. On one hand it’s an honor to be the bronc rider but on the other hand it’s what you give to the young guy with no wife and no kids. Just in case.
-They will take separate trucks, Donnell alone in his, because the others know better. Donnell can easily turn a five-hour trip into a ten-hour trip. Easily. He likes to stop and chat with customers. He’ll pass out sale catalogs and hang posters of Turbo at sale barns, feed stores, any place that looks good. He has a roll of tape in his truck.
-Soon he is alone on Highway 183. A pickup approaches in the opposing lane and he raises two fingers, waves. He will do this over and over again, every truck he sees, until he reaches a town with too many to greet. Then, on the other side of that town he will wave again, truck by truck.
-All the investors have said yes to the idea of cloning Revelation. Sometimes Donnell wishes one of them had said no. Sometimes it’s easier when God takes choices away from you. It’s up to Donnell now, up to him to call the lab.
-His dad said no. Actually, his dad said, “Nah,” as in, Why in the world would you spend all that money on some dumb clone? It’s funny. Because his dad is the one who always wants to try awesome new things, and Donnell is the one clinging to good, conservative sense. You’d think their positions would be reversed.
-But here’s his dad’s point: a better bull is on the horizon. Something even more amazing than Revelation will come along, so put your faith and your prayer and your energy there. In the future. Not the past.
-It’s a tough one for Donnell to get. He’s a cowboy. A cowboy holds on to what is known and correct. It’s good to look forward, of course it is. But it’s hard to look forward when the past was so perfect.
-He may yet decide to clone. He may not. But instead of idling, stuck in the mud of indecision, he thinks: Revelation plus AbiGrace. The top Red Angus bull. Donnell has the semen. The top Red Angus cow. He has the eggs.
-And now he has the resulting embryos in 16 surrogate cows. This April, when the calves drop to the ground, he’ll see what he gets. He’ll see. Anyway, right now, he wishes he thought to bring a staple gun. Because tape won’t stick to a corkboard, and that’s the only place at this particular feed store where he’s allowed to put a poster. Other posters of other cattle are using up all the tacks, and he is not a man to take down another man’s poster.
-He needs a staple gun, so he finds a Super Wal-Mart and pulls into the parking lot. He has on the spurs he won riding bronc at a ranch rodeo in 1989. He has on his fancy embroidered shirt. He notices a splotch of dried mud on his jeans. He takes out the knife he keeps clipped to his belt, unfolds it and scrapes. He reaches into the back of his truck, grabs his hat, the handsome black felt one he brings out each fall. He puts the hat on his head, positions it low, walks tall and listens to the gentle jingle of his spurs.
-In this way, all dignity and elegance and fight, a cowboy enters Wal-Mart on an October afternoon full of steam, the way of sunshine after rain.</t>
-  </si>
-  <si>
     <t>https://www.smithsonianmag.com/science-nature/dark-energy-the-biggest-mystery-in-the-universe-9482130/</t>
   </si>
   <si>
@@ -669,51 +311,6 @@
     <t>Panek, Richard</t>
   </si>
   <si>
-    <t>Twice a day, seven days a week, from February to November for the past four years, two researchers have layered themselves with thermal underwear and outerwear, with fleece, flannel, double gloves, double socks, padded overalls and puffy red parkas, mummifying themselves until they look like twin Michelin Men. Then they step outside, trading the warmth and modern conveniences of a science station (foosball, fitness center, 24-hour cafeteria) for a minus-100-degree Fahrenheit featureless landscape, flatter than Kansas and one of the coldest places on the planet. They trudge in darkness nearly a mile, across a plateau of snow and ice, until they discern, against the backdrop of more stars than any hands-in-pocket backyard observer has ever seen, the silhouette of the giant disk of the South Pole Telescope, where they join a global effort to solve possibly the greatest riddle in the universe: what most of it is made of. For thousands of years our species has studied the night sky and wondered if anything else is out there. Last year we celebrated the 400th anniversary of Galileo’s answer: Yes. Galileo trained a new instrument, the telescope, on the heavens and saw objects that no other person had ever seen: hundreds of stars, mountains on the Moon, satellites of Jupiter. Since then we have found more than 400 planets around other stars, 100 billion stars in our galaxy, hundreds of billions of galaxies beyond our own, even the faint radiation that is the echo of the Big Bang.
-Now scientists think that even this extravagant census of the universe might be as out-of-date as the five-planet cosmos that Galileo inherited from the ancients. Astronomers have compiled evidence that what we’ve always thought of as the actual universe—me, you, this magazine, planets, stars, galaxies, all the matter in space—represents a mere 4 percent of what’s actually out there. The rest they call, for want of a better word, dark: 23 percent is something they call dark matter, and 73 percent is something even more mysterious, which they call dark energy.
-“We have a complete inventory of the universe,” Sean Carroll, a California Institute of Technology cosmologist, has said, “and it makes no sense.”
-Scientists have some ideas about what dark matter might be—exotic and still hypothetical particles—but they have hardly a clue about dark energy. In 2003, the National Research Council listed “What Is the Nature of Dark Energy?” as one of the most pressing scientific problems of the coming decades. The head of the committee that wrote the report, University of Chicago cosmologist Michael S. Turner, goes further and ranks dark energy as “the most profound mystery in all of science.”
-The effort to solve it has mobilized a generation of astronomers in a rethinking of physics and cosmology to rival and perhaps surpass the revolution Galileo inaugurated on an autumn evening in Padua. They are coming to terms with a deep irony: it is sight itself that has blinded us to nearly the entire universe. And the recognition of this blindness, in turn, has inspired us to ask, as if for the first time: What is this cosmos we call home?
-Scientists reached a consensus in the 1970s that there was more to the universe than meets the eye. In computer simulations of our galaxy, the Milky Way, theorists found that the center would not hold—based on what we can see of it, our galaxy doesn’t have enough mass to keep everything in place. As it rotates, it should disintegrate, shedding stars and gas in every direction. Either a spiral galaxy such as the Milky Way violates the laws of gravity, or the light emanating from it—from the vast glowing clouds of gas and the myriad stars—is an inaccurate indication of the galaxy’s mass.
-But what if some portion of a galaxy’s mass didn’t radiate light? If spiral galaxies contained enough of such mystery mass, then they might well be obeying the laws of gravity. Astronomers dubbed the invisible mass “dark matter.”
-“Nobody ever told us that all matter radiated,”Vera Rubin, an astronomer whose observations of galaxy rotations provided evidence for dark matter, has said. “We just assumed that it did.”
-The effort to understand dark matter defined much of astronomy for the next two decades. Astronomers may not know what dark matter is, but inferring its presence allowed them to pursue in a new way an eternal question: What is the fate of the universe?
-They already knew that the universe is expanding. In 1929, the astronomer Edwin Hubble had discovered that distant galaxies were moving away from us and that the farther away they got, the faster they seemed to be receding.
-This was a radical idea. Instead of the stately, eternally unchanging still life that the universe once appeared to be, it was actually alive in time, like a movie. Rewind the film of the expansion and the universe would eventually reach a state of infinite density and energy—what astronomers call the Big Bang. But what if you hit fast-forward? How would the story end?
-The universe is full of matter, and matter attracts other matter through gravity. Astronomers reasoned that the mutual attraction among all that matter must be slowing down the expansion of the universe. But they didn’t know what the ultimate outcome would be. Would the gravitational effect be so forceful that the universe would ultimately stretch a certain distance, stop and reverse itself, like a ball tossed into the air? Or would it be so slight that the universe would escape its grasp and never stop expanding, like a rocket leaving Earth’s atmosphere? Or did we live in an exquisitely balanced universe, in which gravity ensures a Goldilocks rate of expansion neither too fast nor too slow—so the universe would eventually come to a virtual standstill?
-Assuming the existence of dark matter and that the law of gravitation is universal, two teams of astrophysicists—one led by Saul Perlmutter, at the Lawrence Berkeley National Laboratory, the other by Brian Schmidt, at Australian National University—set out to determine the future of the universe. Throughout the 1990s the rival teams closely analyzed a number of exploding stars, or supernovas, using those unusually bright, short-lived distant objects to gauge the universe’s growth. They knew how bright the supernovas should appear at different points across the universe if the rate of expansion were uniform. By comparing how much brighter the supernovas actually did appear, astronomers figured they could determine how much the expansion of the universe was slowing down. But to the astronomers’ surprise, when they looked as far as halfway across the universe, six or seven billion light-years away, they found that the supernovas weren’t brighter—and therefore nearer—than expected. They were dimmer—that is, more distant. The two teams both concluded that the expansion of the universe isn’t slowing down. It’s speeding up.
-The implication of that discovery was momentous: it meant that the dominant force in the evolution of the universe isn’t gravity. It is...something else. Both teams announced their findings in 1998. Turner gave the “something” a nickname: dark energy. It stuck. Since then, astronomers have pursued the mystery of dark energy to the ends of the Earth—literally.
-“The South Pole has the harshest environment on Earth, but also the most benign,” says William Holzapfel, a University of California at Berkeley astrophysicist who was the on-site lead researcher at the South Pole Telescope (SPT) when I visited.
-He wasn’t referring to the weather, though in the week between Christmas and New Year’s Day—early summer in the Southern Hemisphere—the Sun shone around the clock, the temperatures were barely in the minus single digits (and one day even broke zero), and the wind was mostly calm. Holzapfel made the walk from the National Science Foundation’s Amundsen-Scott South Pole Station (a snowball’s throw from the traditional site of the pole itself, which is marked with, yes, a pole) to the telescope wearing jeans and running shoes. One afternoon the telescope’s laboratory building got so warm the crew propped open a door.
-But from an astronomer’s perspective, not until the Sun goes down and stays down—March through September— does the South Pole get “benign.”
-“It’s six months of uninterrupted data,” says Holzapfel. During the 24-hour darkness of the austral autumn and winter, the telescope operates nonstop under impeccable conditions for astronomy. The atmosphere is thin (the pole is more than 9,300 feet above sea level, 9,000 of which are ice). The atmosphere is also stable, due to the absence of the heating and cooling effects of a rising and setting Sun; the pole has some of the calmest winds on Earth, and they almost always blow from the same direction.
-Perhaps most important for the telescope, the air is exceptionally dry; technically, Antarctica is a desert. (Chapped hands can take weeks to heal, and perspiration isn’t really a hygiene issue, so the restriction to two showers a week to conserve water isn’t much of a problem. As one pole veteran told me, “The moment you go back through customs at Christchurch [New Zealand], that’s when you’ll need a shower.”) The SPT detects microwaves, a part of the electromagnetic spectrum that is particularly sensitive to water vapor. Humid air can absorb microwaves and prevent them from reaching the telescope, and moisture emits its own radiation, which could be misread as cosmic signals.
-To minimize these problems, astronomers who analyze microwaves and submillimeter waves have made the South Pole a second home. Their instruments reside in the Dark Sector, a tight cluster of buildings where light and other sources of electromagnetic radiation are kept to a minimum. (Nearby are the Quiet Sector, for seismology research, and the Clean Air Sector, for climate projects.)
-Astronomers like to say that for more pristine observing conditions, they would have to go into outer space—an exponentially more expensive proposition, and one that NASA generally doesn’t like to pursue unless the science can’t easily be done on Earth. (A dark energy satellite has been on and off the drawing board since 1999, and last year went “back to square one,” according to one NASA adviser.) At least on Earth, if something goes wrong with an instrument, you don’t need to commandeer a space shuttle to fix it.
-The United States has maintained a year-round presence at the pole since 1956, and by now the National Science Foundation’s U.S. Antarctic Program has gotten life there down to, well, a science. Until 2008, the station was housed in a geodesic dome whose crown is still visible above the snow. The new base station resembles a small cruise ship more than a remote outpost and sleeps more than 150, all in private quarters. Through the portholes that line the two floors, you can contemplate a horizon as hypnotically level as any ocean’s. The new station rests on lifts that, as snow accumulates, allow it to be jacked up two full stories.
-The snowfall in this ultra-arid region may be minimal, but that which blows in from the continent’s edges can still make a mess, creating one of the more mundane tasks for the SPT’s winter-over crew. Once a week during the dark months, when the station population shrinks to around 50, the two on-site SPT researchers have to climb into the telescope’s 33-foot-wide microwave dish and sweep it clean. The telescope gathers data and sends it to the desktops of distant researchers. The two “winter-overs” spend their days working on the data, too, analyzing it as if they were back home. But when the telescope hits a glitch and an alarm on their laptops sounds, they have to figure out what the problem is—fast.
-“An hour of down time is thousands of dollars of lost observing time,” says Keith Vanderlinde, one of 2008’s two winter-overs. “There are always little things. A fan will break because it’s so dry down there, all the lubrication goes away. And then the computer will overheat and turn itself off, and suddenly we’re down and we have no idea why.” At that point, the environment might not seem so “benign” after all. No flights go to or from the South Pole from March to October (a plane’s engine oil would gelatinize), so if the winter-overs can’t fix whatever is broken, it stays broken—which hasn’t yet happened.
-More than most sciences, astronomy depends on the sense of sight; before astronomers can reimagine the universe as a whole, they first have to figure out how to perceive the dark parts. Knowing what dark matter is would help scientists think about how the structure of the universe forms. Knowing what dark energy does would help scientists think about how that structure has evolved over time—and how it will continue to evolve.
-Scientists have a couple of candidates for the composition of dark matter—hypothetical particles called neutralinos and axions. For dark energy, however, the challenge is to figure out not what it is but what it’s like. In particular, astronomers want to know if dark energy changes over space and time, or whether it’s constant. One way to study it is to measure so-called baryon acoustic oscillations. When the universe was still in its infancy, a mere 379,000 years old, it cooled sufficiently for baryons (particles made from protons and neutrons) to separate from photons (packets of light). This separation left behind an imprint—called the cosmic microwave background—that can still be detected today. It includes sound waves (“acoustic oscillations”) that coursed through the infant universe. The peaks of those oscillations represent regions that were slightly denser than the rest of the universe. And because matter attracts matter through gravity, those regions grew even denser as the universe aged, coalescing first into galaxies and then into clusters of galaxies. If astronomers compare the original cosmic microwave background oscillations with the distribution of galaxies at different stages of the universe’s history, they can measure the rate of the universe’s expansion.
-Another approach to defining dark energy involves a method called gravitational lensing. According to Albert Einstein’s theory of general relativity, a beam of light traveling through space appears to bend because of the gravitational pull of matter. (Actually, it’s space itself that bends, and light just goes along for the ride.) If two clusters of galaxies lie along a single line of sight, the foreground cluster will act as a lens that distorts light coming from the background cluster. This distortion can tell astronomers the mass of the foreground cluster. By sampling millions of galaxies in different parts of the universe, astronomers should be able to estimate the rate at which galaxies have clumped into clusters over time, and that rate in turn will tell them how fast the universe expanded at different points in its history.
-The South Pole Telescope uses a third technique, called the Sunyaev-Zel’dovich effect, named for two Soviet physicists, which draws on the cosmic microwave background. If a photon from the latter interacts with hot gas in a cluster, it experiences a slight increase in energy. Detecting this energy allows astronomers to map those clusters and measure the influence of dark energy on their growth throughout the history of the universe. That, at least, is the hope. “A lot of people in the community have developed what I think is a healthy skepticism. They say, ‘That’s great, but show us the money,’” says Holzapfel. “And I think within a year or two, we’ll be in a position to be able to do that.”
-The SPT team focuses on galaxy clusters because they are the largest structures in the universe, often consisting of hundreds of galaxies—they are one million billion times the mass of the Sun. As dark energy pushes the universe to expand, galaxy clusters will have a harder time growing. They will become more distant from one another, and the universe will become colder and lonelier.
-Galaxy clusters “are sort of like canaries in a coal mine in terms of structure formation,” Holzapfel says. If the density of dark matter or the properties of dark energy were to change, the abundance of clusters “would be the first thing to be altered.” The South Pole Telescope should be able to track galaxy clusters over time. “You can say, ‘At so many billion years ago, how many clusters were there, and how many are there now?’” says Holzapfel. “And then compare them to your predictions.”
-Yet all these methods come with a caveat. They assume that we sufficiently understand gravity, which is not only the force opposing dark energy but has been the very foundation of physics for the past four centuries.
-Twenty times a second, a laser high in the Sacramento Mountains of New Mexico aims a pulse of light at the Moon, 239,000 miles away. The beam’s target is one of three suitcase-size reflectors that Apollo astronauts planted on the lunar surface four decades ago. Photons from the beam bounce off the mirror and return to New Mexico. Total round-trip travel time: 2.5 seconds, more or less.
-That “more or less” makes all the difference. By timing the speed-of-light journey, researchers at the Apache Point Observatory Lunar Laser-ranging Operation (APOLLO) can measure the Earth-Moon distance moment to moment and map the Moon’s orbit with exquisite precision. As in the apocryphal story of Galileo dropping balls from the Leaning Tower of Pisa to test the universality of free fall, APOLLO treats the Earth and Moon like two balls dropping in the gravitational field of the Sun. Mario Livio, an astrophysicist at the Space Telescope Science Institute in Baltimore, calls it an “absolutely incredible experiment.” If the orbit of the Moon exhibits even the slightest deviation from Einstein’s predictions, scientists might have to rethink his equations—and perhaps even the existence of dark matter and dark energy.
-“So far, Einstein is holding,” says one of APOLLO’s lead observers, astronomer Russet McMillan, as her five-year project passes the halfway point.
-Even if Einstein weren’t holding, researchers would first have to eliminate other possibilities, such as an error in the measure of the mass of the Earth, Moon or Sun, before conceding that general relativity requires a corrective. Even so, astronomers know that they take gravity for granted at their own peril. They have inferred the existence of dark matter due to its gravitational effects on galaxies, and the existence of dark energy due to its anti-gravitational effects on the expansion of the universe. What if the assumption underlying these twin inferences—that we know how gravity works—is wrong? Can a theory of the universe even more outlandish than one positing dark matter and dark energy account for the evidence? To find out, scientists are testing gravity not only across the universe but across the tabletop. Until recently, physicists hadn’t measured gravity at extremely close ranges.
-“Astonishing, isn’t it?” says Eric Adelberger, the coordinator of several gravity experiments taking place in a laboratory at the University of Washington, Seattle. “But it wouldn’t be astonishing if you tried to do it”—if you tried to test gravity at distances shorter than a millimeter. Testing gravity isn’t simply a matter of putting two objects close to each other and measuring the attraction between them. All sorts of other things may be exerting a gravitational influence.
-“There’s metal here,” Adelberger says, pointing to a nearby instrument. “There’s a hillside over here”—waving toward some point past the concrete wall that encircles the laboratory. “There’s a lake over there.” There’s also the groundwater level in the soil, which changes every time it rains. Then there’s the rotation of the Earth, the position of the Sun, the dark matter at the heart of our galaxy.
-Over the past decade the Seattle team has measured the gravitational attraction between two objects at smaller and smaller distances, down to 56 microns (or 1/500 of an inch), just to make sure that Einstein’s equations for gravity hold true at the shortest distances, too. So far, they do.
-But even Einstein recognized that his theory of general relativity didn’t entirely explain the universe. He spent the last 30 years of his life trying to reconcile his physics of the very big with the physics of the very small—quantum mechanics. He failed.
-Theorists have come up with all sorts of possibilities in an attempt to reconcile general relativity with quantum mechanics: parallel universes, colliding universes, bubble universes, universes with extra dimensions, universes that eternally reproduce, universes that bounce from Big Bang to Big Crunch to Big Bang.
-Adam Riess, an astronomer who collaborated with Brian Schmidt on the discovery of dark energy, says he looks every day at an Internet site (xxx.lanl.gov/archive/astro-ph) where scientists post their analyses to see what new ideas are out there. “Most of them are pretty kooky,” he says. “But it’s possible that somebody will come out with a deep theory.”
-For all its advances, astronomy turns out to have been laboring under an incorrect, if reasonable, assumption: what you see is what you get. Now astronomers have to adapt to the idea that the universe is not the stuff of us—in the grand scheme of things, our species and our planet and our galaxy and everything we have ever seen are, as theoretical physicist Lawrence Krauss of Arizona State University has said, “a bit of pollution.”
-Yet cosmologists tend not to be discouraged. “The really hard problems are great,” says Michael Turner, “because we know they’ll require a crazy new idea.” As Andreas Albrecht, a cosmologist at the University of California at Davis, said at a recent conference on dark energy: “If you put the timeline of the history of science before me and I could choose any time and field, this is where I’d want to be.”</t>
-  </si>
-  <si>
     <t>https://www.smithsonianmag.com/science-nature/saving-the-silky-sifaka-9586309/</t>
   </si>
   <si>
@@ -726,13 +323,6 @@
     <t>In Madagascar, an American researcher races to protect one of the world's rarest mammals, a white lemur known as the silky sifaka</t>
   </si>
   <si>
-    <t>Clustered in the mountains of northeastern Madagascar, they are known locally as “ghosts of the forest,” because they seem to flash through the trees. To scientists, silky sifakas are known as one of the world’s rarest mammals. There are fewer than 1,000 still alive, perhaps only 100, says Erik Patel, a PhD candidate at Cornell University who has spent years observing the an­imals in the island nation’s Marojejy National Park.
-A type of lemur, a silky sifaka weighs between 11 and 14 pounds and measures up to three-and-a-half-feet long. Silkies “fly like angels,” local people say, leaping as far as ten yards from tree to tree. “You could be following them and suddenly you look up and they’re a quarter-mile away,” says Kevin Schafer, a Seattle-based wildlife photographer who spent two weeks with Patel documenting the elusive primate.
-The bone-white animal (a.k.a. Propithecus candidus) is called silky because of its luxurious fur.The word “sifaka,” shared by several lemur species, echoes the screech—“shee-faak!”—made by some frightened lemurs, but not the silky.
-People are the silkies’ main threat. Some hunt them for food. Others burn their forest habitat to make room for rice fields. Loggers also destroy silky habitat when they cut down, illegally, valuable rosewood trees.
-Patel works with communities to discourage logging and the hunting of silkies. He has taken children to see them in the wild and hired villagers to track them. Unless destruction of their habitat ceases, he fears, the animal will become a ghost in fact. “Time is quickly running out,” he says.</t>
-  </si>
-  <si>
     <t>https://www.smithsonianmag.com/travel/photographing-baltimores-working-class-9338157/</t>
   </si>
   <si>
@@ -748,17 +338,6 @@
     <t>Baltimore's A. Aubrey Bodine cast a romantic light on the city's dockworkers in painterly photographs</t>
   </si>
   <si>
-    <t>The man habitually carried a compass to find the sun on cloudy days; toilet paper to diffuse the light of his flashbulbs; and a machete to deal with unsightly vegetation—and heaven knows what else—that got in his way. But A. Aubrey Bodine once said his favorite tool was his alarm clock. To take advantage of morning light, the Maryland photographer often rose before dawn and set out for the Baltimore waterfront, where the big freighters might be ferrying sugar, bananas or, as on the day Longshoremen was shot in 1955 at the B&amp;O railroad pier, rubber. “He’d go down there in the middle of the night sometimes, with thousands of dollars of camera equipment,” his daughter Jennifer recalls. “It was a violent, filthy, terrifying place.” But Longshoremen belies the port’s industrial ugliness. With spotlight-like sunshine, it is as elegant as a theater set, the draped cargo net adding the nautical touch that Bodine loved.
-The image ran in the Sunday Baltimore Sun, where Bodine, a staff photographer, published almost all his work; it also won prizes in competitions around the world, particularly in the Eastern bloc. Politically, Bodine stood somewhere “to the right of Ivan the Terrible,” according to his editor and biographer, the late Harold Williams, but he shared the communists’ reverence for the worker. Farmers driving yokes of oxen, grimy miners and, especially, dockworkers and watermen—Bodine shot them all. He was an indefatigable laborer himself, taking nearly 50,000 photographs before his death, at age 64, in 1970. In an era when newspaper photos were usually uncredited, Bodine demanded a byline, and before long it was known throughout the state and beyond.
-Yet he remained secretive about the initial “A.” It stood for Aldine. He started at the Sun as a 14-year-old messenger boy in 1920. He caught a break in 1924, when one of the paper’s commercial photographers was scorched in a flash-powder explosion. Even without volatile equipment, photography was a risky enterprise; Bodine loved shooting the Chesapeake Bay, but he couldn’t swim and was forever clinging to the masts of oyster boats, saddled with a large-format camera as heavy as a millstone. Yet he practiced his craft relentlessly, accepting newspaper assignments not only on his wedding morning but on his honeymoon as well. He began shooting primarily for the Sun’s Sunday photography section in 1927 and its Sunday magazine in 1946.
-According to even his closest friends, he was not a sociable man. “I do not cover fires or anyone bitten by a dog,” he once declared, apparently oblivious to the feelings of newsroom colleagues who did. One of them remarked that had Bodine drowned on one of his water shoots, his “body would have floated upstream.” Yet he was admired. “He had it all figured out,” says Walter McCardell, who joined the Sun’s photography staff in 1945. “He learned what time the sun rose. I think he knew the tides.” McCardell once tagged along with him on a predawn shoot, “but Bodine didn’t like how the sun was coming up.” After the sun misbehaved for two more mornings, McCardell elected to stay in bed.
-Bodine preferred idyllic scenes. He was a pictorialist, part of a photographic movement dating from the late 1800s that favors a painterly aesthetic. Pictorialists freely manipulate their subjects; Bodine thought nothing of removing eyesores, adding props and posing people—including the dockworkers in Longshoremen, according to Kathleen Ewing, author of A. Aubrey Bodine: Baltimore Pictorialist. If he still wasn’t satisfied, the darkroom offered myriad remedies. He was adept at dubbing in sea gulls or brightening the whitecaps on waves. He kept a fishing tackle box full of cloud negatives for enlivening lackluster skies. Some of his practices would be firing offenses at newspapers today, but they were a more acceptable part of feature photography then.
-At home, Bodine—which is what even his daughter Jennifer calls him—covered the dining room table with his fresh prints, so the family frequently ate in the kitchen. Gold toner filled the bathtub; the Bodines bathed next door. He was out on assignment throughout Jennifer’s childhood, or so it seemed. When he was home, she prayed he wouldn’t be the one to drive her to a birthday party—too often he would spot a picture on the way and pull the car over, delivering her, pouting in patent leather and crinoline, hours late.
-Health problems, including diabetes and hypertension, shadowed Bodine’s later years, but he was undeterred. During one hospital stay, Williams writes, a night watchman discovered him on the roof in his bathrobe, shooting Baltimore’s moonlit skyline. During another, Bodine was found in the lobby, where some of his photographs were displayed. He set about autographing each one until a nurse telephoned the psychiatric ward. “I think one of your patients is down here,” she said, “pretending he’s Aubrey Bodine.”
-On the last day of his life he went out to photograph a church spire, another favorite subject, but returned to the office empty-handed, telling editors that the light had “conked out” on him. He then retreated to the darkroom, where he collapsed. He died of a massive stroke.
-Jennifer—who named her only child, a girl, Bodine—now spends her time cataloging her father’s endless prints: the record of where he was all those years.</t>
-  </si>
-  <si>
     <t>https://www.popsci.com/science/article/2010-03/does-geothermal-power-cause-earthquakes</t>
   </si>
   <si>
@@ -768,12 +347,6 @@
     <t>On December 8, 2006, Markus Häring caused some 30 earthquakes -- the largest registering 3.4 on the Richter scale -- in Basel, Switzerland. Häring is not a supervillain. He's a geologist, and he had nothing but good intentions when he injected high-pressure water into rocks three miles below the surface, attempting to generate electricity through a process called enhanced geothermal. But he produced earthquakes instead, and when seismic analysis confirmed that the quakes were centered near the drilling site, city officials charged him with $9 million worth of damage to buildings.</t>
   </si>
   <si>
-    <t>On December 8, 2006, Markus Häring caused some 30 earthquakes -- the largest registering 3.4 on the Richter scale -- in Basel, Switzerland. Häring is not a supervillain. He's a geologist, and he had nothing but good intentions when he injected high-pressure water into rocks three miles below the surface, attempting to generate electricity through a process called enhanced geothermal. But he produced earthquakes instead, and when seismic analysis confirmed that the quakes were centered near the drilling site, city officials charged him with $9 million worth of damage to buildings. Häring was acquitted last December -- it was ruled that he had not intentionally created the tremors -- but his project was nixed for good late last year following a scientific review that calculated a 15 percent chance that further drilling could spur a major earthquake causing more than $500 million in damage. The debacle is bringing enhanced-geothermal projects here in the U.S. under new scrutiny.
-Conventional geothermal plants run on steam from within the earth. But for places without steam reservoirs, scientists developed enhanced geothermal. The technique involves drilling a well deep into hot rock and injecting high-pressure water into the hole. As the water forces its way into the Earth's crust, it carves new fractures into the rock and absorbs heat. Then engineers simply pump the heated water back to the surface and use the resulting steam to turn electricity-generating turbines. The U.S. is banking on enhanced geothermal as a source of inexpensive, green energy -- we have plenty of hot rocks, particularly in Western states. In 2009 alone, the Department of Energy allotted more than $100 million to enhanced-geothermal projects. Geologists always expect that the water-infusion step will create some seismic activity but, as the Swiss fiasco proved, the tremors can cause real damage. Drilling-induced fractures can interact with existing seismic systems (Basel sits on a fault line) to produce quakes. "The size and number of quakes depends on how much fluid you pump in and how fast," says Colin Williams, a scientist on the U.S. Geological Survey's earthquake hazards team. "The key is finding a balance that results in unnoticeable microseismicity."
-Because areas in the U.S. with the hottest rocks tend to be more seismically active, the success of the American ventures -- based primarily in the West -- will require careful site selection. At the time, Häring's rudimentary seismic analysis seemed sufficient to most experts, says Domenico Giardini, the director of the Swiss Seismological Service. The mess actually inspired more-rigorous testing, and so he and Williams think other facilities can be successful, provided that the quake risk is small. "As long as you do this far away from inhabited areas, there shouldn't be a problem," Giardini says. "But for cities with a history of earthquakes, it's probably best not to install enhanced geothermal." To wit, the DOE directed the bulk of its $100 million to projects in rural areas of California, Idaho, Nevada and Oregon.
-Ultimately, the benefits of enhanced geothermal might be too great to give up. The DOE projects that enhanced-geothermal systems could supply a full 10 percent of U.S. electricity needs, 40 times as much as today's geothermal projects. And because heat from the rocks is constant, so is the electricity they help generate. Although it's important to establish that projects won't exceed a reasonable earthquake risk, no site assessment is foolproof. As Häring said after his trial, "We don't get innovation for free. We have to work it out."</t>
-  </si>
-  <si>
     <t>Svoboda, Elizabeth</t>
   </si>
   <si>
@@ -792,12 +365,6 @@
     <t>Chemistry</t>
   </si>
   <si>
-    <t>You've probably seen contestants on Survivor trying to make fire by rubbing sticks together or concentrating sunlight with their eyeglasses. But among preindustrial fire-starting methods, it's hard to beat the portable convenience of fire pistons, used in Southeast Asia since prehistoric times. Almost all gases heat up when compressed. The harder and the faster the compression, the hotter the gas gets, hot enough even to ignite cotton wool or other flammable materials. Diesel engines work the same way: They have no spark plugs; instead the fuel/air mixture is ignited by compression as the cylinder closes up.
-Perhaps most surprising is that this same principle also explains how many high explosives work. They are called "high" because their explosive reaction expands through a supersonic pressure wave that travels much faster than ordinary burning, making them far more powerful than low explosives like gunpowder. Each successive bit of material in a high explosive ignites when the pressure wave compresses and heats trapped microscopic bubbles of gas. When manufactured without bubbles, even extremely powerful high explosives can be impossible to detonate. Without gas to compress, there is no way for the detonation wave to heat up neighboring areas.
-For example, ANFO (ammonium nitrate/fuel oil) explosive mixtures, commonly used in mining, don't always naturally contain enough trapped gas, and require a "sensitizer" to render them reliably explosive—often just a slurry containing hollow glass microspheres.
-Some high explosives also create heat through the friction of microscopic crystals rubbing against each other, but in many cases the difference between bang and no bang is just hot air.</t>
-  </si>
-  <si>
     <t>https://www.popsci.com/technology/article/2010-03/most-advanced-rc-car</t>
   </si>
   <si>
@@ -813,15 +380,6 @@
     <t>Engineering</t>
   </si>
   <si>
-    <t>Gas-powered remote-control cars provide realistic racing fun. They burn a gasoline-like fuel called nitro (made of methanol, nitromethane and lubricant) with miniature internal combustion engines. Losi's Ten-T gets even more authentic by adding a starter that works like a diesel engine's. Nitro cars are usually hard to start: You have to pick them up, use a hand-held motor to spin the engine, and simultaneously work the remote's throttle. With the Ten-T you just hit "start" on the remote. That turns on the car's own electric motor, powered by a 7.4-volt lithium-polymer battery. The motor turns a starter shaft behind the engine, which spins the crankshaft until the engine's suction draws in fuel. Meanwhile, the battery also lights a glow plug, similar to a spark plug, in the engine. The plug's hot element, combined with the compression of the fuel-air mixture when the piston rises, ignites the fuel. Then the plug keeps glowing, and the fuel keeps burning, until you're ready to call it quits.
-Design Highlights on the R/C Car
-Telemetry:The Ten-T is among the first R/C vehicles to come with a built-in telemetry system, similar to those in a pro racecar. Sensors on the car continuously beam data on speed, temperature and battery voltage to a display on the remote.
-Fuel Tank: The 2.5-ounce tank includes a weighted pickup tube that follows the liquid as it sloshes around, ensuring that it can grab and deliver fuel even when the car drives up a steep hill. A full tank runs the engine for about 10 minutes (standard for high-power nitro cars), and it's refueled from a squeeze bottle.
-Engine: The single-cylinder, 3.4cc engine provides 1.8 horsepower, enough to send the 6.2-pound car up to 45 mph in a few seconds.
-Drivetrain: In the four-wheel-drive vehicle, the engine transmits power to the wheels by engaging a clutch and kicking off a series of gearsets that lets each wheel spin at a different speed. Dual disc brakes stop both the front and rear axles.
-Suspension: The front and rear suspensions are adjustable to tackle many terrains. Shifting the control arm alters ride height, camber (the vertical angle of the wheels) and toe-in (the degree they point in or out). Turning a collar on the oil-filled shocks changes springiness. Steering Servo: This small, high-torque electric motor moves the wheels' control arms. You can tweak its movement from the transmitter -- for instance, to alter the distance it turns with each command or limit the steering angle to speed over straight tracks.</t>
-  </si>
-  <si>
     <t>https://www.popsci.com/environment/article/2010-03/timeline-simpler-sonar</t>
   </si>
   <si>
@@ -834,12 +392,6 @@
     <t>Parsons, Sarah</t>
   </si>
   <si>
-    <t>Solar power sounds great: electricity from sunshine, for free, no carbon footprint. But solar panels often come with hefty price tags or require complex installations. Now lighter materials are making them less expensive and more convenient, whether you carry them with you or snap them onto your roof. Now: Power Pack
-This take-anywhere electric plant won't weigh you down. Tonino Lamborghini's bag is the first product to use a new solar panel that's as light, thin and flexible as fabric yet absorbs rays in any light, including artificial light or under clouds. It's made of dye-sensitized solar cells, which trap more wavelengths in less space by wrapping each individual particle of a conductive layer in light-absorbing dye molecules. Charge a cellphone in six to eight hours, indoors or out. Soon: Plug-and-Play Panels
-Click together a rooftop solar system in a few hours, saving days or weeks on design and installation. Armageddon's modular kit consists of metal frames light enough to carry up a ladder, plus 18-pound solar panels—coated in Teflon instead of heavy glass—that snap onto the frames' tabs. The easy-to-lift, ready-made parts mean that installers don't have to build frames on top of a house and also eliminate tricky wiring, since each frame has its own DC-to-AC converter that lets it plug straight into a home circuit breaker. Later: Solar Shingles
-Rather than laying solar panels across your roof, use them as your roof. Dow built thin-film photovoltaic cells directly into polymer shingles. They're as protective as ordinary shingles, nail down in the same way and, in place of exposed wiring, hook together with simple electrical connectors at their ends. Some units go on sale later this year, with wide availability next year. Dow is also working on other building materials with sun power built in.</t>
-  </si>
-  <si>
     <t>What are Virtual PCs, and What Can I Do With Them?</t>
   </si>
   <si>
@@ -852,21 +404,356 @@
     <t>You’ve finally got your PC set up to your liking and running smoothly. So when you decide to add software later on, the last thing you want is something potentially unstable that could endanger the system. Although they’re not a replacement for antivirus applications, virtual machines can really come in handy. Essentially, they’re full-fledged operating systems that run as an application inside your actual operating system while remaining safely isolated from it.</t>
   </si>
   <si>
-    <t>You’ve finally got your PC set up to your liking and running smoothly. So when you decide to add software later on, the last thing you want is something potentially unstable that could endanger the system. Although they’re not a replacement for antivirus applications, virtual machines can really come in handy. Essentially, they’re full-fledged operating systems that run as an application inside your actual operating system while remaining safely isolated from it. Say you want to open a file you downloaded from a questionable source, kick the tires on a new operating system like Linux, or even run an older OS from the familiar environment of your main desktop. If anything goes awry in your virtual machine, you can reset it to a previous state or just delete it altogether, with no harm to your system. You could even run a separate operating system as a virtual machine just to use that one killer app that's not available on your OS of choice.
-Free applications like Microsoft's Windows Virtual PC ([micro soft.com](http://micro soft.com)), VMware Player (vmware.com) and the open-source app VirtualBox (virtualbox.org) are great for getting your feet wet. Setting them up is a similar process to installing a regular operating system. Once you've done it, it will seem like you've got a real, separate computer living inside your system.</t>
-  </si>
-  <si>
     <t>Astrophysics</t>
+  </si>
+  <si>
+    <t>Beating Obesity</t>
+  </si>
+  <si>
+    <t>Ambinder, Marc</t>
+  </si>
+  <si>
+    <t>https://www.theatlantic.com/magazine/archive/2010/05/beating-obesity/308017/</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>By 2015, four out of 10 Americans may be obese. Until last year, the author was one of them. The way he lost one-third of his weight isn't for everyone. But unless America stops cheering The Biggest Loser and starts getting serious about preventing obesity, the country risks being overwhelmed by chronic disease and ballooning health costs. Will first lady Michelle Obama's new plan to fight childhood obesity work, or is it just another false start in the country's long and so far unsuccessful war against fat?</t>
+  </si>
+  <si>
+    <t>The Next Empire</t>
+  </si>
+  <si>
+    <t>French, Howard W.</t>
+  </si>
+  <si>
+    <t>https://www.theatlantic.com/magazine/archive/2010/05/the-next-empire/308018/</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>All across Africa, new tracks are being laid, highways built, ports deepened, commercial contracts signed—all on an unprecedented scale, and led by China, whose appetite for commodities seems insatiable. Do China’s grand designs promise the transformation, at last, of a star-crossed continent? Or merely its exploitation?</t>
+  </si>
+  <si>
+    <t>Everything Is Illuminated</t>
+  </si>
+  <si>
+    <t>Levathes, Louise</t>
+  </si>
+  <si>
+    <t>https://www.theatlantic.com/magazine/archive/2010/05/everything-is-illuminated/308015/</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Inexpensive, handheld Raman scanners will soon enable anyone to identify just about anything.</t>
+  </si>
+  <si>
+    <t>SubTropolis, U.S.A</t>
+  </si>
+  <si>
+    <t>Nadis, Steve</t>
+  </si>
+  <si>
+    <t>https://www.theatlantic.com/magazine/archive/2010/05/subtropolis-usa/308033/</t>
+  </si>
+  <si>
+    <t>A large chunk of Kansas City’s real estate lies 100 feet below ground, and offers a creative solution to global warming.</t>
+  </si>
+  <si>
+    <t>Shafted</t>
+  </si>
+  <si>
+    <t>Nijhuis, Michelle</t>
+  </si>
+  <si>
+    <t>https://www.theatlantic.com/magazine/archive/2010/05/shafted/308025/</t>
+  </si>
+  <si>
+    <t>Runoff from old mines poisons Colorado’s rivers. Why are enviro groups trying to stop locals from cleaning them up?</t>
+  </si>
+  <si>
+    <t>The Secrets of Sleep</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.com/magazine/2010/05/sleep/</t>
+  </si>
+  <si>
+    <t>From birth, we spend a third of our lives asleep. After decades of research, we’re still not sure why.</t>
+  </si>
+  <si>
+    <t>The Forgotten Road</t>
+  </si>
+  <si>
+    <t>Max, D.T.</t>
+  </si>
+  <si>
+    <t>Jenkins, Mark</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.com/magazine/2010/05/tea-horse/</t>
+  </si>
+  <si>
+    <t>Chinese tea and Tibetan horses were long traded on a legendary trail. Today remnants of the passageway reveal grand vistas—and a surprising new commerce.</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.com/magazine/2010/05/iberian-lynx/</t>
+  </si>
+  <si>
+    <t>A Lifeline for the Iberian Lynx</t>
+  </si>
+  <si>
+    <t>Holland, Jennifer S.</t>
+  </si>
+  <si>
+    <t>Not since the time of the sabertooth has a feline species gone extinct. Earth’s most endangered cat could be next.</t>
+  </si>
+  <si>
+    <t>Europe's Wild Side</t>
+  </si>
+  <si>
+    <t>Belt, Don</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.com/magazine/2010/05/european-wildlife/</t>
+  </si>
+  <si>
+    <t>A dream team of European photographers captures the continent’s wildlife and landscapes.</t>
+  </si>
+  <si>
+    <t>Thirty years after the blast, Mount St. Helens is reborn again.</t>
+  </si>
+  <si>
+    <t>Mountain Transformed</t>
+  </si>
+  <si>
+    <t>Funk, McKenzie</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.com/magazine/2010/05/mount-st-helens/</t>
+  </si>
+  <si>
+    <t>Island-hopping dinosaur discovered in Europe</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/science/2010/05/island-hopping-dinosaur-discovered-in-europe/</t>
+  </si>
+  <si>
+    <t>Archaeology</t>
+  </si>
+  <si>
+    <t>Paleontologists have found a fossil in Europe that belongs to a dinosaur …</t>
+  </si>
+  <si>
+    <t>Small World shows iPad capability for board games</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/gaming/2010/05/small-world-shows-ipad-capability-for-board-games/</t>
+  </si>
+  <si>
+    <t>Small World shows the promise of bare-bones, fully working board games at a …</t>
+  </si>
+  <si>
+    <t>Protecting biodiversity reduces poverty in developing nations</t>
+  </si>
+  <si>
+    <t>Kuchera, Ben</t>
+  </si>
+  <si>
+    <t>Yoshida, Kate Shaw</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/science/2010/05/protecting-biodiversity-reduces-poverty-in-developing-nations/</t>
+  </si>
+  <si>
+    <t>Environment, Economics</t>
+  </si>
+  <si>
+    <t>In contrast to earlier research, a new study shows that the establishment of …</t>
+  </si>
+  <si>
+    <t>Facebook finally gets it with new, simpler privacy controls</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/information-technology/2010/05/facebook-finally-gets-it-with-new-simpler-privacy-controls/</t>
+  </si>
+  <si>
+    <t>Facebook hasn't made many friends recently with its constantly eroding privacy …</t>
+  </si>
+  <si>
+    <t>Exclusive: Rock Band 3 brings keytar, new “pro” mode</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/gaming/2010/05/exclusive-rock-band-3-brings-keytar-new-pro-mode/</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Rock Band 3 is getting a keytar, and Mad Catz will be the sole supplier of the …</t>
+  </si>
+  <si>
+    <t>Filoli: Garden of a Golden Age</t>
+  </si>
+  <si>
+    <t>Purvis, Andrew</t>
+  </si>
+  <si>
+    <t>https://www.smithsonianmag.com/travel/filoli-garden-of-a-golden-age-14012904/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filoli—a lavish early 20th century estate that is the last of its kind—harks back to when San Francisco’s richest families built to dazzle
+</t>
+  </si>
+  <si>
+    <t>For Wildebeests, Danger Ahead</t>
+  </si>
+  <si>
+    <t>Africa’s wildebeest migration pits a million thundering animals against a gantlet of perils, even—some experts fear—climate change</t>
+  </si>
+  <si>
+    <t>https://www.smithsonianmag.com/science-nature/for-wildebeests-danger-ahead-13930092/</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>How Our Brains Make Memories</t>
+  </si>
+  <si>
+    <t>Surprising new research about the act of remembering may help people with post-traumatic stress disorder</t>
+  </si>
+  <si>
+    <t>https://www.smithsonianmag.com/science-nature/how-our-brains-make-memories-14466850/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saving the World’s Most Endangered Sea Turtle
+</t>
+  </si>
+  <si>
+    <t>Stranded on Cape Cod beaches, these Kemp’s ridley turtles are getting a helping hand from volunteers and researchers</t>
+  </si>
+  <si>
+    <t>https://www.smithsonianmag.com/science-nature/saving-the-worlds-most-endangered-sea-turtle-14657081/</t>
+  </si>
+  <si>
+    <t>Scanning a Stradivarius</t>
+  </si>
+  <si>
+    <t>Hendry, Erica R.</t>
+  </si>
+  <si>
+    <t>https://www.smithsonianmag.com/smithsonian-institution/scanning-a-stradivarius-13807009/</t>
+  </si>
+  <si>
+    <t>Technology, Music</t>
+  </si>
+  <si>
+    <t>Medical 3-D imaging makes it possible to study the world’s greatest stringed instruments – and uncover the secrets of its makers</t>
+  </si>
+  <si>
+    <t>Gray Matter: The Power of Regenerative Braking</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/diy/article/2010-04/gray-matter-use-electric-motor-generator</t>
+  </si>
+  <si>
+    <t>How the same trick that recovers energy in a hybrid car can help you survive the zombie apocalypse</t>
+  </si>
+  <si>
+    <t>Future of the Car: The Electric-Car Cheat Sheet</t>
+  </si>
+  <si>
+    <t>Fletcher, Seth</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/cars/article/2010-04/electric-car-cheat-sheet</t>
+  </si>
+  <si>
+    <t>A guide to the technologies, battery companies and carmakers that are bringing our electrified future here faster than you think. Plus: 7 promising electric cars on the horizon</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/science/article/2010-04/could-asteroid-impact-knock-moon-earth</t>
+  </si>
+  <si>
+    <t>Could an Asteroid Impact Knock the Moon into the Earth?</t>
+  </si>
+  <si>
+    <t>Ravindran, Sandeep</t>
+  </si>
+  <si>
+    <t>It would take a moon-sized object to move the moon.</t>
+  </si>
+  <si>
+    <t>This Chip Can Sift Martian Soil For Alien DNA</t>
+  </si>
+  <si>
+    <t>Birbrair, Lana</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/science/article/2010-04/chip-can-test-dna-martian-soil</t>
+  </si>
+  <si>
+    <t>Technology, Astrophysics</t>
+  </si>
+  <si>
+    <t>DNA-testing Martian soil could lead us to life on another planet</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/science/article/2010-04/banking-dna</t>
+  </si>
+  <si>
+    <t>Turn Genetic Info Into Better Medical Treatments</t>
+  </si>
+  <si>
+    <t>Rosenwald, Mike</t>
+  </si>
+  <si>
+    <t>Genetic samples from 500,000 Britons will be stored and retrieved by robots inside BioBank's –112ºF freezer.</t>
+  </si>
+  <si>
+    <t>Readability (Dejargonizer)</t>
+  </si>
+  <si>
+    <t>Readability (Gunning-Fog)</t>
+  </si>
+  <si>
+    <t>Readability (Flesch-Kincaid)</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>Number of words</t>
+  </si>
+  <si>
+    <t>Country of focus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm\-d"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -892,13 +779,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B7F319-0346-4E1F-8210-5BC3AFBF4C07}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,11 +1113,18 @@
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="69.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1255,732 +1150,1763 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>40269</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2">
+        <v>88</v>
+      </c>
+      <c r="J2">
+        <v>11.9</v>
+      </c>
+      <c r="K2">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>40269</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>91</v>
+      </c>
+      <c r="J3">
+        <v>10.1</v>
+      </c>
+      <c r="K3">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>40269</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>87</v>
+      </c>
+      <c r="J4">
+        <v>11.1</v>
+      </c>
+      <c r="K4">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>40269</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>87</v>
+      </c>
+      <c r="J5">
+        <v>11.6</v>
+      </c>
+      <c r="K5">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>40269</v>
       </c>
       <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>89</v>
+      </c>
+      <c r="J6">
+        <v>10.9</v>
+      </c>
+      <c r="K6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>91</v>
+      </c>
+      <c r="J7">
+        <v>11.9</v>
+      </c>
+      <c r="K7">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>9.9</v>
+      </c>
+      <c r="K8">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9">
+        <v>87</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10">
+        <v>91</v>
+      </c>
+      <c r="J10">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1">
-        <v>40269</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="K10">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="1">
-        <v>40269</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1">
-        <v>40269</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>40269</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1">
-        <v>40269</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>139</v>
-      </c>
       <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="I11">
+        <v>89</v>
+      </c>
+      <c r="J11">
+        <v>11.2</v>
+      </c>
+      <c r="K11">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>40269</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>89</v>
+      </c>
+      <c r="J12">
+        <v>13.1</v>
+      </c>
+      <c r="K12">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>40269</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I13">
+        <v>92</v>
+      </c>
+      <c r="J13">
+        <v>13.4</v>
+      </c>
+      <c r="K13">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <v>40269</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>91</v>
+      </c>
+      <c r="J14">
+        <v>11.1</v>
+      </c>
+      <c r="K14">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1">
         <v>40269</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15">
         <v>91</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>11.8</v>
+      </c>
+      <c r="K15">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1">
         <v>40269</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I16">
+        <v>88</v>
+      </c>
+      <c r="J16">
+        <v>11.4</v>
+      </c>
+      <c r="K16">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="1">
-        <v>40269</v>
+        <v>126</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43230</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="I17">
+        <v>92</v>
+      </c>
+      <c r="J17">
+        <v>14.3</v>
+      </c>
+      <c r="K17">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="1">
-        <v>40269</v>
+        <v>131</v>
+      </c>
+      <c r="D18" s="3">
+        <v>43230</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="I18">
+        <v>91</v>
+      </c>
+      <c r="J18">
+        <v>13.4</v>
+      </c>
+      <c r="K18">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="1">
-        <v>40269</v>
+        <v>136</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43230</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="I19">
+        <v>88</v>
+      </c>
+      <c r="J19">
+        <v>15.6</v>
+      </c>
+      <c r="K19">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="1">
-        <v>40269</v>
+        <v>141</v>
+      </c>
+      <c r="D20" s="3">
+        <v>43230</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="I20">
+        <v>91</v>
+      </c>
+      <c r="J20">
+        <v>14.8</v>
+      </c>
+      <c r="K20">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="1">
-        <v>40269</v>
+        <v>145</v>
+      </c>
+      <c r="D21" s="3">
+        <v>43230</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="I21">
+        <v>87</v>
+      </c>
+      <c r="J21">
+        <v>16.7</v>
+      </c>
+      <c r="K21">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1">
         <v>40269</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I22">
+        <v>93</v>
+      </c>
+      <c r="J22">
+        <v>17.2</v>
+      </c>
+      <c r="K22">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1">
         <v>40269</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I23">
+        <v>97</v>
+      </c>
+      <c r="J23">
+        <v>17.3</v>
+      </c>
+      <c r="K23">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1">
         <v>40269</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I24">
+        <v>90</v>
+      </c>
+      <c r="J24">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K24">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1">
         <v>40269</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>90</v>
+      </c>
+      <c r="J25">
+        <v>11.8</v>
+      </c>
+      <c r="K25">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1">
         <v>40269</v>
       </c>
       <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>89</v>
+      </c>
+      <c r="J26">
+        <v>10.6</v>
+      </c>
+      <c r="K26">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27">
+        <v>90</v>
+      </c>
+      <c r="J27">
+        <v>14.5</v>
+      </c>
+      <c r="K27">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="1">
+        <v>40317</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28">
+        <v>96</v>
+      </c>
+      <c r="J28">
+        <v>11.2</v>
+      </c>
+      <c r="K28">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="1">
+        <v>40317</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29">
+        <v>94</v>
+      </c>
+      <c r="J29">
+        <v>19.8</v>
+      </c>
+      <c r="K29">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40317</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" t="s">
+        <v>184</v>
+      </c>
+      <c r="I30">
+        <v>96</v>
+      </c>
+      <c r="J30">
+        <v>14.4</v>
+      </c>
+      <c r="K30">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="1">
+        <v>40317</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31">
+        <v>91</v>
+      </c>
+      <c r="J31">
+        <v>13.1</v>
+      </c>
+      <c r="K31">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32">
+        <v>90</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33">
+        <v>89</v>
+      </c>
+      <c r="J33">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K33">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34">
+        <v>91</v>
+      </c>
+      <c r="J34">
+        <v>13.9</v>
+      </c>
+      <c r="K34">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35">
+        <v>87</v>
+      </c>
+      <c r="J35">
+        <v>9.4</v>
+      </c>
+      <c r="K35">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36">
+        <v>86</v>
+      </c>
+      <c r="J36">
+        <v>12.3</v>
+      </c>
+      <c r="K36">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37">
+        <v>87</v>
+      </c>
+      <c r="J37">
+        <v>10.6</v>
+      </c>
+      <c r="K37">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38">
+        <v>89</v>
+      </c>
+      <c r="J38">
+        <v>11.5</v>
+      </c>
+      <c r="K38">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39">
+        <v>91</v>
+      </c>
+      <c r="J39">
+        <v>13.5</v>
+      </c>
+      <c r="K39">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40">
+        <v>89</v>
+      </c>
+      <c r="J40">
+        <v>9.6</v>
+      </c>
+      <c r="K40">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>205</v>
+      </c>
+      <c r="G41" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41">
+        <v>87</v>
+      </c>
+      <c r="J41">
+        <v>14.3</v>
+      </c>
+      <c r="K41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42">
+        <v>90</v>
+      </c>
+      <c r="J42">
+        <v>10.8</v>
+      </c>
+      <c r="K42">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43">
+        <v>86</v>
+      </c>
+      <c r="J43">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K43">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" t="s">
+        <v>112</v>
+      </c>
+      <c r="I44">
+        <v>88</v>
+      </c>
+      <c r="J44">
+        <v>10.4</v>
+      </c>
+      <c r="K44">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45">
+        <v>88</v>
+      </c>
+      <c r="J45">
+        <v>12.9</v>
+      </c>
+      <c r="K45">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46">
+        <v>93</v>
+      </c>
+      <c r="J46">
         <v>13</v>
       </c>
-      <c r="F26" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" t="s">
-        <v>149</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>150</v>
+      <c r="K46">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47">
+        <v>91</v>
+      </c>
+      <c r="J47">
+        <v>14.3</v>
+      </c>
+      <c r="K47">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>213</v>
+      </c>
+      <c r="G48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" t="s">
+        <v>214</v>
+      </c>
+      <c r="I48">
+        <v>87</v>
+      </c>
+      <c r="J48">
+        <v>12.3</v>
+      </c>
+      <c r="K48">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I49">
+        <v>94</v>
+      </c>
+      <c r="J49">
+        <v>10.8</v>
+      </c>
+      <c r="K49">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>221</v>
+      </c>
+      <c r="G50" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50">
+        <v>88</v>
+      </c>
+      <c r="J50">
+        <v>15.1</v>
+      </c>
+      <c r="K50">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="1">
+        <v>40308</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I51">
+        <v>94</v>
+      </c>
+      <c r="J51">
+        <v>13.5</v>
+      </c>
+      <c r="K51">
+        <v>47.2</v>
       </c>
     </row>
   </sheetData>
